--- a/Procesos/25000234100020130195901.xlsx
+++ b/Procesos/25000234100020130195901.xlsx
@@ -583,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW102"/>
+  <dimension ref="A1:AW104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
@@ -1735,7 +1735,7 @@
     <row customHeight="1" ht="33" r="32" s="8">
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>03 Feb 2020</t>
+          <t>14 Feb 2020</t>
         </is>
       </c>
       <c r="D32" s="18" t="n"/>
@@ -1751,7 +1751,7 @@
       <c r="J32" s="19" t="n"/>
       <c r="K32" s="9" t="inlineStr">
         <is>
-          <t>LA OFICINA JURÍDICA DEL MINISTERIO DE EDUCACIÓN NACIONAL, CONFIERE PODER A LA ABOGADA LEIDY GISELA AVILA RESTREPO, QUIEN A SU VEZ SUSTITUYE PODER A FAVOR DEL PROFESIONAL DEL DERECHO JHON EDWIN PERDOMO GARCIA. ANEXA SOPORTES</t>
+          <t>EL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO, APODERADO DEL MINISTERIO DE EDUCACION NACIONAL, PRESENTA RENUNCIA AL PODER. ANEXA COMUNICACIÓN</t>
         </is>
       </c>
       <c r="L32" s="18" t="n"/>
@@ -1789,7 +1789,7 @@
       <c r="AR32" s="19" t="n"/>
       <c r="AS32" s="9" t="inlineStr">
         <is>
-          <t>03 Feb 2020</t>
+          <t>14 Feb 2020</t>
         </is>
       </c>
       <c r="AT32" s="18" t="n"/>
@@ -1799,7 +1799,7 @@
     <row customHeight="1" ht="33" r="33" s="8">
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>31 Jan 2020</t>
+          <t>13 Feb 2020</t>
         </is>
       </c>
       <c r="D33" s="18" t="n"/>
@@ -1815,7 +1815,7 @@
       <c r="J33" s="19" t="n"/>
       <c r="K33" s="9" t="inlineStr">
         <is>
-          <t>LA NACION - MINISTERIO DE EDUCACION NACIONAL, CONFEIRE PODER A LA ABOGADA LEIDY GISELA AVILA RESTREPO, QUIEN A SU VEZ LE SUSTITUYE PODER AL ABOGADO JHON EDWIN PERDOMO GARCIA.</t>
+          <t>EL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO, QUIEN ACTUA COMO APODERADO DEL MINISTERIO DE EDUCACION, PRESENTA RENUNCIA DE PODER.</t>
         </is>
       </c>
       <c r="L33" s="18" t="n"/>
@@ -1853,7 +1853,7 @@
       <c r="AR33" s="19" t="n"/>
       <c r="AS33" s="9" t="inlineStr">
         <is>
-          <t>31 Jan 2020</t>
+          <t>13 Feb 2020</t>
         </is>
       </c>
       <c r="AT33" s="18" t="n"/>
@@ -1863,7 +1863,7 @@
     <row customHeight="1" ht="33" r="34" s="8">
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>19 Nov 2019</t>
+          <t>03 Feb 2020</t>
         </is>
       </c>
       <c r="D34" s="18" t="n"/>
@@ -1871,7 +1871,7 @@
       <c r="F34" s="19" t="n"/>
       <c r="G34" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H34" s="18" t="n"/>
@@ -1879,7 +1879,7 @@
       <c r="J34" s="19" t="n"/>
       <c r="K34" s="9" t="inlineStr">
         <is>
-          <t>PARA FALLO</t>
+          <t>LA OFICINA JURÍDICA DEL MINISTERIO DE EDUCACIÓN NACIONAL, CONFIERE PODER A LA ABOGADA LEIDY GISELA AVILA RESTREPO, QUIEN A SU VEZ SUSTITUYE PODER A FAVOR DEL PROFESIONAL DEL DERECHO JHON EDWIN PERDOMO GARCIA. ANEXA SOPORTES</t>
         </is>
       </c>
       <c r="L34" s="18" t="n"/>
@@ -1917,7 +1917,7 @@
       <c r="AR34" s="19" t="n"/>
       <c r="AS34" s="9" t="inlineStr">
         <is>
-          <t>19 Nov 2019</t>
+          <t>03 Feb 2020</t>
         </is>
       </c>
       <c r="AT34" s="18" t="n"/>
@@ -1927,7 +1927,7 @@
     <row customHeight="1" ht="33" r="35" s="8">
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>18 Nov 2019</t>
+          <t>31 Jan 2020</t>
         </is>
       </c>
       <c r="D35" s="18" t="n"/>
@@ -1935,7 +1935,7 @@
       <c r="F35" s="19" t="n"/>
       <c r="G35" s="9" t="inlineStr">
         <is>
-          <t>CAMBIO DE PONENTE</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H35" s="18" t="n"/>
@@ -1943,7 +1943,7 @@
       <c r="J35" s="19" t="n"/>
       <c r="K35" s="9" t="inlineStr">
         <is>
-          <t>A LAS 12:14:36 ANT. PONENTE:CARLOS ALBERTO ZAMBRANO BARRERA NVO. PONENTE:MARTA NUBIA VELASQUEZ RICO (E2) POR TERMINACIÓN DE PERÍODO CONSTITUCIONAL</t>
+          <t>LA NACION - MINISTERIO DE EDUCACION NACIONAL, CONFEIRE PODER A LA ABOGADA LEIDY GISELA AVILA RESTREPO, QUIEN A SU VEZ LE SUSTITUYE PODER AL ABOGADO JHON EDWIN PERDOMO GARCIA.</t>
         </is>
       </c>
       <c r="L35" s="18" t="n"/>
@@ -1971,25 +1971,17 @@
       <c r="AH35" s="18" t="n"/>
       <c r="AI35" s="18" t="n"/>
       <c r="AJ35" s="19" t="n"/>
-      <c r="AK35" s="9" t="inlineStr">
-        <is>
-          <t>18 Nov 2019</t>
-        </is>
-      </c>
+      <c r="AK35" s="9" t="inlineStr"/>
       <c r="AL35" s="18" t="n"/>
       <c r="AM35" s="18" t="n"/>
       <c r="AN35" s="19" t="n"/>
-      <c r="AO35" s="9" t="inlineStr">
-        <is>
-          <t>18 Nov 2019</t>
-        </is>
-      </c>
+      <c r="AO35" s="9" t="inlineStr"/>
       <c r="AP35" s="18" t="n"/>
       <c r="AQ35" s="18" t="n"/>
       <c r="AR35" s="19" t="n"/>
       <c r="AS35" s="9" t="inlineStr">
         <is>
-          <t>18 Nov 2019</t>
+          <t>31 Jan 2020</t>
         </is>
       </c>
       <c r="AT35" s="18" t="n"/>
@@ -1999,7 +1991,7 @@
     <row customHeight="1" ht="33" r="36" s="8">
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>08 Nov 2019</t>
+          <t>19 Nov 2019</t>
         </is>
       </c>
       <c r="D36" s="18" t="n"/>
@@ -2007,7 +1999,7 @@
       <c r="F36" s="19" t="n"/>
       <c r="G36" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H36" s="18" t="n"/>
@@ -2015,7 +2007,7 @@
       <c r="J36" s="19" t="n"/>
       <c r="K36" s="9" t="inlineStr">
         <is>
-          <t>ACEPTA RENUNCIA DE PODER - RECONOCE PERSONERÍA APODERADO MINISTERIO DE TRANSPORTE.</t>
+          <t>PARA FALLO</t>
         </is>
       </c>
       <c r="L36" s="18" t="n"/>
@@ -2043,25 +2035,17 @@
       <c r="AH36" s="18" t="n"/>
       <c r="AI36" s="18" t="n"/>
       <c r="AJ36" s="19" t="n"/>
-      <c r="AK36" s="9" t="inlineStr">
-        <is>
-          <t>08 Nov 2019</t>
-        </is>
-      </c>
+      <c r="AK36" s="9" t="inlineStr"/>
       <c r="AL36" s="18" t="n"/>
       <c r="AM36" s="18" t="n"/>
       <c r="AN36" s="19" t="n"/>
-      <c r="AO36" s="9" t="inlineStr">
-        <is>
-          <t>08 Nov 2019</t>
-        </is>
-      </c>
+      <c r="AO36" s="9" t="inlineStr"/>
       <c r="AP36" s="18" t="n"/>
       <c r="AQ36" s="18" t="n"/>
       <c r="AR36" s="19" t="n"/>
       <c r="AS36" s="9" t="inlineStr">
         <is>
-          <t>07 Nov 2019</t>
+          <t>19 Nov 2019</t>
         </is>
       </c>
       <c r="AT36" s="18" t="n"/>
@@ -2071,7 +2055,7 @@
     <row customHeight="1" ht="33" r="37" s="8">
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>07 Nov 2019</t>
+          <t>18 Nov 2019</t>
         </is>
       </c>
       <c r="D37" s="18" t="n"/>
@@ -2079,7 +2063,7 @@
       <c r="F37" s="19" t="n"/>
       <c r="G37" s="9" t="inlineStr">
         <is>
-          <t>ENVIÓ DE NOTIFICACIÓN</t>
+          <t>CAMBIO DE PONENTE</t>
         </is>
       </c>
       <c r="H37" s="18" t="n"/>
@@ -2087,7 +2071,7 @@
       <c r="J37" s="19" t="n"/>
       <c r="K37" s="9" t="inlineStr">
         <is>
-          <t>MD-NOTIFICADOS:ALVARO URIBE VELEZ NOT-7892(ENVIADO EMAIL),PRESIDENCIA DE LA RE... NOT-7893(ENVIADO EMAIL),PROCURADOR CUARTO DE... NOT-7894(ENVIADO EMAIL),MINISTERIO DE TRANSP... NOT-7895(ENVIADO EMAIL),NACION - MINISTERIO ... NOT-7896(ENVIADO EMAIL),NACION - MINISTERIO ... NOT-7897(ENVIADO EMAIL),LA NACION - MINISTER... NOT-7898(ENVIADO EMAIL),ADJUNTOS:F25000234100020130195901S3PARAADUNTARAUTO20191107121431</t>
+          <t>A LAS 12:14:36 ANT. PONENTE:CARLOS ALBERTO ZAMBRANO BARRERA NVO. PONENTE:MARTA NUBIA VELASQUEZ RICO (E2) POR TERMINACIÓN DE PERÍODO CONSTITUCIONAL</t>
         </is>
       </c>
       <c r="L37" s="18" t="n"/>
@@ -2115,17 +2099,25 @@
       <c r="AH37" s="18" t="n"/>
       <c r="AI37" s="18" t="n"/>
       <c r="AJ37" s="19" t="n"/>
-      <c r="AK37" s="9" t="inlineStr"/>
+      <c r="AK37" s="9" t="inlineStr">
+        <is>
+          <t>18 Nov 2019</t>
+        </is>
+      </c>
       <c r="AL37" s="18" t="n"/>
       <c r="AM37" s="18" t="n"/>
       <c r="AN37" s="19" t="n"/>
-      <c r="AO37" s="9" t="inlineStr"/>
+      <c r="AO37" s="9" t="inlineStr">
+        <is>
+          <t>18 Nov 2019</t>
+        </is>
+      </c>
       <c r="AP37" s="18" t="n"/>
       <c r="AQ37" s="18" t="n"/>
       <c r="AR37" s="19" t="n"/>
       <c r="AS37" s="9" t="inlineStr">
         <is>
-          <t>07 Nov 2019</t>
+          <t>18 Nov 2019</t>
         </is>
       </c>
       <c r="AT37" s="18" t="n"/>
@@ -2135,7 +2127,7 @@
     <row customHeight="1" ht="33" r="38" s="8">
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>23 Oct 2019</t>
+          <t>08 Nov 2019</t>
         </is>
       </c>
       <c r="D38" s="18" t="n"/>
@@ -2143,7 +2135,7 @@
       <c r="F38" s="19" t="n"/>
       <c r="G38" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERIA</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H38" s="18" t="n"/>
@@ -2151,7 +2143,7 @@
       <c r="J38" s="19" t="n"/>
       <c r="K38" s="9" t="inlineStr">
         <is>
-          <t>(...) COMO QUIERA QUE EN ESTE ASUNTO LA MENCIONADA ABOGADA APORTÓ LA COMUNICACIÓN RESPECTIVA, EL DESPACHO ENCUENTRA PROCEDENTE ACEPTAR LA RENUNCIA. POR OTRA PARTE, POR CUMPLIR CON LOS REQUISITOS DE LOS ARTÍCULOS 74 Y 75 DEL C.G DEL P., SE RECONOCE PERSONERÍA AL ABOGADO ANDRÉS FELIPE RENGIFO VALDERRAMA, TITULAR DE LA TARJETA PROFESIONAL 243.348 EXPEDIDA POR EL CONSEJO SUPERIOR DE LA JUDICATURA, PARA ACTUAR COMO APODERADO DE LA NACIÓN- MINISTERIO DE TRANSPORTE, EN LOS TÉRMINOS DEL PODER VISIBLE A FOLIO 1891 DEL CUADERNO PRINCIPAL.</t>
+          <t>ACEPTA RENUNCIA DE PODER - RECONOCE PERSONERÍA APODERADO MINISTERIO DE TRANSPORTE.</t>
         </is>
       </c>
       <c r="L38" s="18" t="n"/>
@@ -2179,11 +2171,19 @@
       <c r="AH38" s="18" t="n"/>
       <c r="AI38" s="18" t="n"/>
       <c r="AJ38" s="19" t="n"/>
-      <c r="AK38" s="9" t="inlineStr"/>
+      <c r="AK38" s="9" t="inlineStr">
+        <is>
+          <t>08 Nov 2019</t>
+        </is>
+      </c>
       <c r="AL38" s="18" t="n"/>
       <c r="AM38" s="18" t="n"/>
       <c r="AN38" s="19" t="n"/>
-      <c r="AO38" s="9" t="inlineStr"/>
+      <c r="AO38" s="9" t="inlineStr">
+        <is>
+          <t>08 Nov 2019</t>
+        </is>
+      </c>
       <c r="AP38" s="18" t="n"/>
       <c r="AQ38" s="18" t="n"/>
       <c r="AR38" s="19" t="n"/>
@@ -2199,7 +2199,7 @@
     <row customHeight="1" ht="33" r="39" s="8">
       <c r="C39" s="9" t="inlineStr">
         <is>
-          <t>15 Oct 2019</t>
+          <t>07 Nov 2019</t>
         </is>
       </c>
       <c r="D39" s="18" t="n"/>
@@ -2207,7 +2207,7 @@
       <c r="F39" s="19" t="n"/>
       <c r="G39" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>ENVIÓ DE NOTIFICACIÓN</t>
         </is>
       </c>
       <c r="H39" s="18" t="n"/>
@@ -2215,7 +2215,7 @@
       <c r="J39" s="19" t="n"/>
       <c r="K39" s="9" t="inlineStr">
         <is>
-          <t>LA OFICINA ASESORA JURÍDICA DEL MINISTERIO DE TRANSPORTE, CONFIERE PODER AL ABOGADO ANDRES FELIPE RENGIFO VALDERRAMA, ANEXA SOPORTES</t>
+          <t>MD-NOTIFICADOS:ALVARO URIBE VELEZ NOT-7892(ENVIADO EMAIL),PRESIDENCIA DE LA RE... NOT-7893(ENVIADO EMAIL),PROCURADOR CUARTO DE... NOT-7894(ENVIADO EMAIL),MINISTERIO DE TRANSP... NOT-7895(ENVIADO EMAIL),NACION - MINISTERIO ... NOT-7896(ENVIADO EMAIL),NACION - MINISTERIO ... NOT-7897(ENVIADO EMAIL),LA NACION - MINISTER... NOT-7898(ENVIADO EMAIL),ADJUNTOS:F25000234100020130195901S3PARAADUNTARAUTO20191107121431</t>
         </is>
       </c>
       <c r="L39" s="18" t="n"/>
@@ -2253,7 +2253,7 @@
       <c r="AR39" s="19" t="n"/>
       <c r="AS39" s="9" t="inlineStr">
         <is>
-          <t>15 Oct 2019</t>
+          <t>07 Nov 2019</t>
         </is>
       </c>
       <c r="AT39" s="18" t="n"/>
@@ -2263,7 +2263,7 @@
     <row customHeight="1" ht="33" r="40" s="8">
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>10 Oct 2019</t>
+          <t>23 Oct 2019</t>
         </is>
       </c>
       <c r="D40" s="18" t="n"/>
@@ -2271,7 +2271,7 @@
       <c r="F40" s="19" t="n"/>
       <c r="G40" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>RECONOCE PERSONERIA</t>
         </is>
       </c>
       <c r="H40" s="18" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="J40" s="19" t="n"/>
       <c r="K40" s="9" t="inlineStr">
         <is>
-          <t>JEFE ENCARGADA DE LA OFICINA ASESORA JURÍDICA DEL MINISTERIO DE TRANSPORTE, CONFIERE PODER AL ABOGADO ANDRES FELIPE RENGIFO VALDERRAMA</t>
+          <t>(...) COMO QUIERA QUE EN ESTE ASUNTO LA MENCIONADA ABOGADA APORTÓ LA COMUNICACIÓN RESPECTIVA, EL DESPACHO ENCUENTRA PROCEDENTE ACEPTAR LA RENUNCIA. POR OTRA PARTE, POR CUMPLIR CON LOS REQUISITOS DE LOS ARTÍCULOS 74 Y 75 DEL C.G DEL P., SE RECONOCE PERSONERÍA AL ABOGADO ANDRÉS FELIPE RENGIFO VALDERRAMA, TITULAR DE LA TARJETA PROFESIONAL 243.348 EXPEDIDA POR EL CONSEJO SUPERIOR DE LA JUDICATURA, PARA ACTUAR COMO APODERADO DE LA NACIÓN- MINISTERIO DE TRANSPORTE, EN LOS TÉRMINOS DEL PODER VISIBLE A FOLIO 1891 DEL CUADERNO PRINCIPAL.</t>
         </is>
       </c>
       <c r="L40" s="18" t="n"/>
@@ -2317,7 +2317,7 @@
       <c r="AR40" s="19" t="n"/>
       <c r="AS40" s="9" t="inlineStr">
         <is>
-          <t>10 Oct 2019</t>
+          <t>07 Nov 2019</t>
         </is>
       </c>
       <c r="AT40" s="18" t="n"/>
@@ -2327,7 +2327,7 @@
     <row customHeight="1" ht="33" r="41" s="8">
       <c r="C41" s="9" t="inlineStr">
         <is>
-          <t>04 Sep 2019</t>
+          <t>15 Oct 2019</t>
         </is>
       </c>
       <c r="D41" s="18" t="n"/>
@@ -2343,7 +2343,7 @@
       <c r="J41" s="19" t="n"/>
       <c r="K41" s="9" t="inlineStr">
         <is>
-          <t>LA APODERADA DE LA NACIÒN - MINISTERIO DE TRANSPORTE PRESENTA RENUNCIA AL PODER ANEXA COMUNICACIÓN</t>
+          <t>LA OFICINA ASESORA JURÍDICA DEL MINISTERIO DE TRANSPORTE, CONFIERE PODER AL ABOGADO ANDRES FELIPE RENGIFO VALDERRAMA, ANEXA SOPORTES</t>
         </is>
       </c>
       <c r="L41" s="18" t="n"/>
@@ -2381,7 +2381,7 @@
       <c r="AR41" s="19" t="n"/>
       <c r="AS41" s="9" t="inlineStr">
         <is>
-          <t>04 Sep 2019</t>
+          <t>15 Oct 2019</t>
         </is>
       </c>
       <c r="AT41" s="18" t="n"/>
@@ -2391,7 +2391,7 @@
     <row customHeight="1" ht="33" r="42" s="8">
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>03 Sep 2019</t>
+          <t>10 Oct 2019</t>
         </is>
       </c>
       <c r="D42" s="18" t="n"/>
@@ -2407,7 +2407,7 @@
       <c r="J42" s="19" t="n"/>
       <c r="K42" s="9" t="inlineStr">
         <is>
-          <t>APODERADA DE LA NACIÒN - MINISTERIO DE TRANSPORTE PRESENTA RENUNCIA AL PODER Y ALLEGA COMUNICACIÓN A LA ENTIDAD PODERDANTE</t>
+          <t>JEFE ENCARGADA DE LA OFICINA ASESORA JURÍDICA DEL MINISTERIO DE TRANSPORTE, CONFIERE PODER AL ABOGADO ANDRES FELIPE RENGIFO VALDERRAMA</t>
         </is>
       </c>
       <c r="L42" s="18" t="n"/>
@@ -2445,7 +2445,7 @@
       <c r="AR42" s="19" t="n"/>
       <c r="AS42" s="9" t="inlineStr">
         <is>
-          <t>03 Sep 2019</t>
+          <t>10 Oct 2019</t>
         </is>
       </c>
       <c r="AT42" s="18" t="n"/>
@@ -2455,7 +2455,7 @@
     <row customHeight="1" ht="33" r="43" s="8">
       <c r="C43" s="9" t="inlineStr">
         <is>
-          <t>03 Sep 2019</t>
+          <t>04 Sep 2019</t>
         </is>
       </c>
       <c r="D43" s="18" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="F43" s="19" t="n"/>
       <c r="G43" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H43" s="18" t="n"/>
@@ -2471,7 +2471,7 @@
       <c r="J43" s="19" t="n"/>
       <c r="K43" s="9" t="inlineStr">
         <is>
-          <t>PARA ELABORAR PROYECTO DE SENTENCIA.</t>
+          <t>LA APODERADA DE LA NACIÒN - MINISTERIO DE TRANSPORTE PRESENTA RENUNCIA AL PODER ANEXA COMUNICACIÓN</t>
         </is>
       </c>
       <c r="L43" s="18" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="AR43" s="19" t="n"/>
       <c r="AS43" s="9" t="inlineStr">
         <is>
-          <t>02 Sep 2019</t>
+          <t>04 Sep 2019</t>
         </is>
       </c>
       <c r="AT43" s="18" t="n"/>
@@ -2519,7 +2519,7 @@
     <row customHeight="1" ht="33" r="44" s="8">
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>23 Aug 2019</t>
+          <t>03 Sep 2019</t>
         </is>
       </c>
       <c r="D44" s="18" t="n"/>
@@ -2527,7 +2527,7 @@
       <c r="F44" s="19" t="n"/>
       <c r="G44" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H44" s="18" t="n"/>
@@ -2535,7 +2535,7 @@
       <c r="J44" s="19" t="n"/>
       <c r="K44" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERIA MINISTERIO DE INTERIOR</t>
+          <t>APODERADA DE LA NACIÒN - MINISTERIO DE TRANSPORTE PRESENTA RENUNCIA AL PODER Y ALLEGA COMUNICACIÓN A LA ENTIDAD PODERDANTE</t>
         </is>
       </c>
       <c r="L44" s="18" t="n"/>
@@ -2563,25 +2563,17 @@
       <c r="AH44" s="18" t="n"/>
       <c r="AI44" s="18" t="n"/>
       <c r="AJ44" s="19" t="n"/>
-      <c r="AK44" s="9" t="inlineStr">
-        <is>
-          <t>23 Aug 2019</t>
-        </is>
-      </c>
+      <c r="AK44" s="9" t="inlineStr"/>
       <c r="AL44" s="18" t="n"/>
       <c r="AM44" s="18" t="n"/>
       <c r="AN44" s="19" t="n"/>
-      <c r="AO44" s="9" t="inlineStr">
-        <is>
-          <t>23 Aug 2019</t>
-        </is>
-      </c>
+      <c r="AO44" s="9" t="inlineStr"/>
       <c r="AP44" s="18" t="n"/>
       <c r="AQ44" s="18" t="n"/>
       <c r="AR44" s="19" t="n"/>
       <c r="AS44" s="9" t="inlineStr">
         <is>
-          <t>22 Aug 2019</t>
+          <t>03 Sep 2019</t>
         </is>
       </c>
       <c r="AT44" s="18" t="n"/>
@@ -2591,7 +2583,7 @@
     <row customHeight="1" ht="33" r="45" s="8">
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t>22 Aug 2019</t>
+          <t>03 Sep 2019</t>
         </is>
       </c>
       <c r="D45" s="18" t="n"/>
@@ -2599,7 +2591,7 @@
       <c r="F45" s="19" t="n"/>
       <c r="G45" s="9" t="inlineStr">
         <is>
-          <t>ENVIÓ DE NOTIFICACIÓN</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H45" s="18" t="n"/>
@@ -2607,7 +2599,7 @@
       <c r="J45" s="19" t="n"/>
       <c r="K45" s="9" t="inlineStr">
         <is>
-          <t>JB-NOTIFICADOS:ALVARO URIBE VELEZ NOT-2892(ENVIADO EMAIL),PRESIDENCIA DE LA RE... NOT-2893(ENVIADO EMAIL),PROCURADOR CUARTO DE... NOT-2894(ENVIADO EMAIL),ADJUNTOS:F25000234100020130195901S3PARAADUNTARAUTO20190822084224</t>
+          <t>PARA ELABORAR PROYECTO DE SENTENCIA.</t>
         </is>
       </c>
       <c r="L45" s="18" t="n"/>
@@ -2645,7 +2637,7 @@
       <c r="AR45" s="19" t="n"/>
       <c r="AS45" s="9" t="inlineStr">
         <is>
-          <t>22 Aug 2019</t>
+          <t>02 Sep 2019</t>
         </is>
       </c>
       <c r="AT45" s="18" t="n"/>
@@ -2655,7 +2647,7 @@
     <row customHeight="1" ht="33" r="46" s="8">
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>12 Aug 2019</t>
+          <t>23 Aug 2019</t>
         </is>
       </c>
       <c r="D46" s="18" t="n"/>
@@ -2663,7 +2655,7 @@
       <c r="F46" s="19" t="n"/>
       <c r="G46" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERIA</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H46" s="18" t="n"/>
@@ -2671,7 +2663,7 @@
       <c r="J46" s="19" t="n"/>
       <c r="K46" s="9" t="inlineStr">
         <is>
-          <t>POR LO ANTERIOR, SE ACEPTARÁ LA RENUNCIA AL PODER PRESENTADO POR EL ABOGADO CARLOS ALBERTO ÁLVAREZ PÉREZ.POR OTRO LADO, POR CUMPLIR LOS REQUISITOS DE LOS ARTÍCULOS 74 Y 75 DEL C. G. DEL P, SE RECONOCE PERSONERÍA A LA ABOGADA MARTHA JEANNETTE GONZÁLEZ GUTIÉRREZ, TITULAR DE LA TARJETA PROFESIONAL 89.225 EXPEDIDA POR EL CONSEJO SUPERIOR DE LA JUDICATURA, PARA ACTUAR COMO APODERADA DEL MINISTERIO DEL MINISTERIO DEL INTERIOR, EN LOS TÉRMINOS DEL PODER VISIBLE A FOLIO 1879 DEL CUADERNO PRINCIPAL.</t>
+          <t>RECONOCE PERSONERIA MINISTERIO DE INTERIOR</t>
         </is>
       </c>
       <c r="L46" s="18" t="n"/>
@@ -2699,11 +2691,19 @@
       <c r="AH46" s="18" t="n"/>
       <c r="AI46" s="18" t="n"/>
       <c r="AJ46" s="19" t="n"/>
-      <c r="AK46" s="9" t="inlineStr"/>
+      <c r="AK46" s="9" t="inlineStr">
+        <is>
+          <t>23 Aug 2019</t>
+        </is>
+      </c>
       <c r="AL46" s="18" t="n"/>
       <c r="AM46" s="18" t="n"/>
       <c r="AN46" s="19" t="n"/>
-      <c r="AO46" s="9" t="inlineStr"/>
+      <c r="AO46" s="9" t="inlineStr">
+        <is>
+          <t>23 Aug 2019</t>
+        </is>
+      </c>
       <c r="AP46" s="18" t="n"/>
       <c r="AQ46" s="18" t="n"/>
       <c r="AR46" s="19" t="n"/>
@@ -2719,7 +2719,7 @@
     <row customHeight="1" ht="33" r="47" s="8">
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>30 Jul 2019</t>
+          <t>22 Aug 2019</t>
         </is>
       </c>
       <c r="D47" s="18" t="n"/>
@@ -2727,7 +2727,7 @@
       <c r="F47" s="19" t="n"/>
       <c r="G47" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>ENVIÓ DE NOTIFICACIÓN</t>
         </is>
       </c>
       <c r="H47" s="18" t="n"/>
@@ -2735,7 +2735,7 @@
       <c r="J47" s="19" t="n"/>
       <c r="K47" s="9" t="inlineStr">
         <is>
-          <t>EL ABOGADO CARLOS ALBERTO ÁLVAREZ PÉREZ, APODERADO DEL MINISTERIO DE MINAS Y ENERGÍA, PRESENTA RENUNCIA AL PODER CONFERIDO, ANEXA COMUNICACIÓN</t>
+          <t>JB-NOTIFICADOS:ALVARO URIBE VELEZ NOT-2892(ENVIADO EMAIL),PRESIDENCIA DE LA RE... NOT-2893(ENVIADO EMAIL),PROCURADOR CUARTO DE... NOT-2894(ENVIADO EMAIL),ADJUNTOS:F25000234100020130195901S3PARAADUNTARAUTO20190822084224</t>
         </is>
       </c>
       <c r="L47" s="18" t="n"/>
@@ -2773,7 +2773,7 @@
       <c r="AR47" s="19" t="n"/>
       <c r="AS47" s="9" t="inlineStr">
         <is>
-          <t>30 Jul 2019</t>
+          <t>22 Aug 2019</t>
         </is>
       </c>
       <c r="AT47" s="18" t="n"/>
@@ -2783,7 +2783,7 @@
     <row customHeight="1" ht="33" r="48" s="8">
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>29 Jul 2019</t>
+          <t>12 Aug 2019</t>
         </is>
       </c>
       <c r="D48" s="18" t="n"/>
@@ -2791,7 +2791,7 @@
       <c r="F48" s="19" t="n"/>
       <c r="G48" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES POR CORRESPONDENCIA</t>
+          <t>RECONOCE PERSONERIA</t>
         </is>
       </c>
       <c r="H48" s="18" t="n"/>
@@ -2799,7 +2799,7 @@
       <c r="J48" s="19" t="n"/>
       <c r="K48" s="9" t="inlineStr">
         <is>
-          <t>APODERADO DEL MINISTERIO DE MINAS Y ENERGIA PRESENTA RENUNCIA DE PODER</t>
+          <t>POR LO ANTERIOR, SE ACEPTARÁ LA RENUNCIA AL PODER PRESENTADO POR EL ABOGADO CARLOS ALBERTO ÁLVAREZ PÉREZ.POR OTRO LADO, POR CUMPLIR LOS REQUISITOS DE LOS ARTÍCULOS 74 Y 75 DEL C. G. DEL P, SE RECONOCE PERSONERÍA A LA ABOGADA MARTHA JEANNETTE GONZÁLEZ GUTIÉRREZ, TITULAR DE LA TARJETA PROFESIONAL 89.225 EXPEDIDA POR EL CONSEJO SUPERIOR DE LA JUDICATURA, PARA ACTUAR COMO APODERADA DEL MINISTERIO DEL MINISTERIO DEL INTERIOR, EN LOS TÉRMINOS DEL PODER VISIBLE A FOLIO 1879 DEL CUADERNO PRINCIPAL.</t>
         </is>
       </c>
       <c r="L48" s="18" t="n"/>
@@ -2837,7 +2837,7 @@
       <c r="AR48" s="19" t="n"/>
       <c r="AS48" s="9" t="inlineStr">
         <is>
-          <t>29 Jul 2019</t>
+          <t>22 Aug 2019</t>
         </is>
       </c>
       <c r="AT48" s="18" t="n"/>
@@ -2847,7 +2847,7 @@
     <row customHeight="1" ht="33" r="49" s="8">
       <c r="C49" s="9" t="inlineStr">
         <is>
-          <t>24 Jul 2019</t>
+          <t>30 Jul 2019</t>
         </is>
       </c>
       <c r="D49" s="18" t="n"/>
@@ -2863,7 +2863,7 @@
       <c r="J49" s="19" t="n"/>
       <c r="K49" s="9" t="inlineStr">
         <is>
-          <t>JEFE DE LA OFICINA ASESORA JURÍDICA DEL MINISTERIO DEL INTERIOR, CONFIERE PODER A LA ABOGADA MARTHA JEANNETTE GONZÁLEZ GUTIÉRREZ</t>
+          <t>EL ABOGADO CARLOS ALBERTO ÁLVAREZ PÉREZ, APODERADO DEL MINISTERIO DE MINAS Y ENERGÍA, PRESENTA RENUNCIA AL PODER CONFERIDO, ANEXA COMUNICACIÓN</t>
         </is>
       </c>
       <c r="L49" s="18" t="n"/>
@@ -2901,7 +2901,7 @@
       <c r="AR49" s="19" t="n"/>
       <c r="AS49" s="9" t="inlineStr">
         <is>
-          <t>24 Jul 2019</t>
+          <t>30 Jul 2019</t>
         </is>
       </c>
       <c r="AT49" s="18" t="n"/>
@@ -2911,7 +2911,7 @@
     <row customHeight="1" ht="33" r="50" s="8">
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>23 Jul 2019</t>
+          <t>29 Jul 2019</t>
         </is>
       </c>
       <c r="D50" s="18" t="n"/>
@@ -2919,7 +2919,7 @@
       <c r="F50" s="19" t="n"/>
       <c r="G50" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>RECIBE MEMORIALES POR CORRESPONDENCIA</t>
         </is>
       </c>
       <c r="H50" s="18" t="n"/>
@@ -2927,7 +2927,7 @@
       <c r="J50" s="19" t="n"/>
       <c r="K50" s="9" t="inlineStr">
         <is>
-          <t>EL ABOGADO CARLOS ALBERTO ALVAREZ PEREZ, APODERADO DE MINISTERIO DE MINAS Y ENERGÍA, RENUNCIA AL PODER CONFERIDO, ANEXA COMUNICACION (22-7-2019)</t>
+          <t>APODERADO DEL MINISTERIO DE MINAS Y ENERGIA PRESENTA RENUNCIA DE PODER</t>
         </is>
       </c>
       <c r="L50" s="18" t="n"/>
@@ -2965,7 +2965,7 @@
       <c r="AR50" s="19" t="n"/>
       <c r="AS50" s="9" t="inlineStr">
         <is>
-          <t>23 Jul 2019</t>
+          <t>29 Jul 2019</t>
         </is>
       </c>
       <c r="AT50" s="18" t="n"/>
@@ -2975,7 +2975,7 @@
     <row customHeight="1" ht="33" r="51" s="8">
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>23 Jul 2019</t>
+          <t>24 Jul 2019</t>
         </is>
       </c>
       <c r="D51" s="18" t="n"/>
@@ -2983,7 +2983,7 @@
       <c r="F51" s="19" t="n"/>
       <c r="G51" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H51" s="18" t="n"/>
@@ -3029,7 +3029,7 @@
       <c r="AR51" s="19" t="n"/>
       <c r="AS51" s="9" t="inlineStr">
         <is>
-          <t>23 Jul 2019</t>
+          <t>24 Jul 2019</t>
         </is>
       </c>
       <c r="AT51" s="18" t="n"/>
@@ -3039,7 +3039,7 @@
     <row customHeight="1" ht="33" r="52" s="8">
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>22 Jul 2019</t>
+          <t>23 Jul 2019</t>
         </is>
       </c>
       <c r="D52" s="18" t="n"/>
@@ -3047,7 +3047,7 @@
       <c r="F52" s="19" t="n"/>
       <c r="G52" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES POR CORREO ELECTRONICO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H52" s="18" t="n"/>
@@ -3055,7 +3055,7 @@
       <c r="J52" s="19" t="n"/>
       <c r="K52" s="9" t="inlineStr">
         <is>
-          <t>22-7-2019 APODERADO DE MINISTERIO DE MINAS Y ENERGÍA RENUNCIA AL PODER CONFERIDO</t>
+          <t>EL ABOGADO CARLOS ALBERTO ALVAREZ PEREZ, APODERADO DE MINISTERIO DE MINAS Y ENERGÍA, RENUNCIA AL PODER CONFERIDO, ANEXA COMUNICACION (22-7-2019)</t>
         </is>
       </c>
       <c r="L52" s="18" t="n"/>
@@ -3093,7 +3093,7 @@
       <c r="AR52" s="19" t="n"/>
       <c r="AS52" s="9" t="inlineStr">
         <is>
-          <t>22 Jul 2019</t>
+          <t>23 Jul 2019</t>
         </is>
       </c>
       <c r="AT52" s="18" t="n"/>
@@ -3103,7 +3103,7 @@
     <row customHeight="1" ht="33" r="53" s="8">
       <c r="C53" s="9" t="inlineStr">
         <is>
-          <t>09 Apr 2019</t>
+          <t>23 Jul 2019</t>
         </is>
       </c>
       <c r="D53" s="18" t="n"/>
@@ -3111,7 +3111,7 @@
       <c r="F53" s="19" t="n"/>
       <c r="G53" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H53" s="18" t="n"/>
@@ -3119,7 +3119,7 @@
       <c r="J53" s="19" t="n"/>
       <c r="K53" s="9" t="inlineStr">
         <is>
-          <t>PARA FALLO</t>
+          <t>JEFE DE LA OFICINA ASESORA JURÍDICA DEL MINISTERIO DEL INTERIOR, CONFIERE PODER A LA ABOGADA MARTHA JEANNETTE GONZÁLEZ GUTIÉRREZ</t>
         </is>
       </c>
       <c r="L53" s="18" t="n"/>
@@ -3157,7 +3157,7 @@
       <c r="AR53" s="19" t="n"/>
       <c r="AS53" s="9" t="inlineStr">
         <is>
-          <t>09 Apr 2019</t>
+          <t>23 Jul 2019</t>
         </is>
       </c>
       <c r="AT53" s="18" t="n"/>
@@ -3167,7 +3167,7 @@
     <row customHeight="1" ht="33" r="54" s="8">
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>02 Apr 2019</t>
+          <t>22 Jul 2019</t>
         </is>
       </c>
       <c r="D54" s="18" t="n"/>
@@ -3175,7 +3175,7 @@
       <c r="F54" s="19" t="n"/>
       <c r="G54" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>RECIBE MEMORIALES POR CORREO ELECTRONICO</t>
         </is>
       </c>
       <c r="H54" s="18" t="n"/>
@@ -3183,7 +3183,7 @@
       <c r="J54" s="19" t="n"/>
       <c r="K54" s="9" t="inlineStr">
         <is>
-          <t>TIENE COMO APODERADO DEL MINISTERIO DE EDUCACIÓN NACIONAL.</t>
+          <t>22-7-2019 APODERADO DE MINISTERIO DE MINAS Y ENERGÍA RENUNCIA AL PODER CONFERIDO</t>
         </is>
       </c>
       <c r="L54" s="18" t="n"/>
@@ -3211,25 +3211,17 @@
       <c r="AH54" s="18" t="n"/>
       <c r="AI54" s="18" t="n"/>
       <c r="AJ54" s="19" t="n"/>
-      <c r="AK54" s="9" t="inlineStr">
-        <is>
-          <t>02 Apr 2019</t>
-        </is>
-      </c>
+      <c r="AK54" s="9" t="inlineStr"/>
       <c r="AL54" s="18" t="n"/>
       <c r="AM54" s="18" t="n"/>
       <c r="AN54" s="19" t="n"/>
-      <c r="AO54" s="9" t="inlineStr">
-        <is>
-          <t>02 Apr 2019</t>
-        </is>
-      </c>
+      <c r="AO54" s="9" t="inlineStr"/>
       <c r="AP54" s="18" t="n"/>
       <c r="AQ54" s="18" t="n"/>
       <c r="AR54" s="19" t="n"/>
       <c r="AS54" s="9" t="inlineStr">
         <is>
-          <t>01 Apr 2019</t>
+          <t>22 Jul 2019</t>
         </is>
       </c>
       <c r="AT54" s="18" t="n"/>
@@ -3239,7 +3231,7 @@
     <row customHeight="1" ht="33" r="55" s="8">
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>11 Mar 2019</t>
+          <t>09 Apr 2019</t>
         </is>
       </c>
       <c r="D55" s="18" t="n"/>
@@ -3247,7 +3239,7 @@
       <c r="F55" s="19" t="n"/>
       <c r="G55" s="9" t="inlineStr">
         <is>
-          <t>AUTO QUE RESUELVE</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H55" s="18" t="n"/>
@@ -3255,7 +3247,7 @@
       <c r="J55" s="19" t="n"/>
       <c r="K55" s="9" t="inlineStr">
         <is>
-          <t>TÉNGASE COMO APODERADO DE LA NACIÓN - MINISTERIO DE EDUCACIÓN NACIONAL AL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO.</t>
+          <t>PARA FALLO</t>
         </is>
       </c>
       <c r="L55" s="18" t="n"/>
@@ -3293,7 +3285,7 @@
       <c r="AR55" s="19" t="n"/>
       <c r="AS55" s="9" t="inlineStr">
         <is>
-          <t>01 Apr 2019</t>
+          <t>09 Apr 2019</t>
         </is>
       </c>
       <c r="AT55" s="18" t="n"/>
@@ -3303,7 +3295,7 @@
     <row customHeight="1" ht="33" r="56" s="8">
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>22 Feb 2019</t>
+          <t>02 Apr 2019</t>
         </is>
       </c>
       <c r="D56" s="18" t="n"/>
@@ -3311,7 +3303,7 @@
       <c r="F56" s="19" t="n"/>
       <c r="G56" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H56" s="18" t="n"/>
@@ -3319,7 +3311,7 @@
       <c r="J56" s="19" t="n"/>
       <c r="K56" s="9" t="inlineStr">
         <is>
-          <t>MINISTERIO DE EDUCACIÒN OTORGA PODER AL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO. ANEXA SOPORTES DE PODER.</t>
+          <t>TIENE COMO APODERADO DEL MINISTERIO DE EDUCACIÓN NACIONAL.</t>
         </is>
       </c>
       <c r="L56" s="18" t="n"/>
@@ -3347,17 +3339,25 @@
       <c r="AH56" s="18" t="n"/>
       <c r="AI56" s="18" t="n"/>
       <c r="AJ56" s="19" t="n"/>
-      <c r="AK56" s="9" t="inlineStr"/>
+      <c r="AK56" s="9" t="inlineStr">
+        <is>
+          <t>02 Apr 2019</t>
+        </is>
+      </c>
       <c r="AL56" s="18" t="n"/>
       <c r="AM56" s="18" t="n"/>
       <c r="AN56" s="19" t="n"/>
-      <c r="AO56" s="9" t="inlineStr"/>
+      <c r="AO56" s="9" t="inlineStr">
+        <is>
+          <t>02 Apr 2019</t>
+        </is>
+      </c>
       <c r="AP56" s="18" t="n"/>
       <c r="AQ56" s="18" t="n"/>
       <c r="AR56" s="19" t="n"/>
       <c r="AS56" s="9" t="inlineStr">
         <is>
-          <t>22 Feb 2019</t>
+          <t>01 Apr 2019</t>
         </is>
       </c>
       <c r="AT56" s="18" t="n"/>
@@ -3367,7 +3367,7 @@
     <row customHeight="1" ht="33" r="57" s="8">
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>21 Feb 2019</t>
+          <t>11 Mar 2019</t>
         </is>
       </c>
       <c r="D57" s="18" t="n"/>
@@ -3375,7 +3375,7 @@
       <c r="F57" s="19" t="n"/>
       <c r="G57" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>AUTO QUE RESUELVE</t>
         </is>
       </c>
       <c r="H57" s="18" t="n"/>
@@ -3383,7 +3383,7 @@
       <c r="J57" s="19" t="n"/>
       <c r="K57" s="9" t="inlineStr">
         <is>
-          <t>MINISTERIO DE EDUCACIÒN OTORGA PODER AL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO. ANEXA SOPORTES DE PODER.</t>
+          <t>TÉNGASE COMO APODERADO DE LA NACIÓN - MINISTERIO DE EDUCACIÓN NACIONAL AL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO.</t>
         </is>
       </c>
       <c r="L57" s="18" t="n"/>
@@ -3421,7 +3421,7 @@
       <c r="AR57" s="19" t="n"/>
       <c r="AS57" s="9" t="inlineStr">
         <is>
-          <t>21 Feb 2019</t>
+          <t>01 Apr 2019</t>
         </is>
       </c>
       <c r="AT57" s="18" t="n"/>
@@ -3431,7 +3431,7 @@
     <row customHeight="1" ht="33" r="58" s="8">
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>29 Jan 2019</t>
+          <t>22 Feb 2019</t>
         </is>
       </c>
       <c r="D58" s="18" t="n"/>
@@ -3439,7 +3439,7 @@
       <c r="F58" s="19" t="n"/>
       <c r="G58" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H58" s="18" t="n"/>
@@ -3447,7 +3447,7 @@
       <c r="J58" s="19" t="n"/>
       <c r="K58" s="9" t="inlineStr">
         <is>
-          <t>PARA RECONOCER PERSONERÍA</t>
+          <t>MINISTERIO DE EDUCACIÒN OTORGA PODER AL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO. ANEXA SOPORTES DE PODER.</t>
         </is>
       </c>
       <c r="L58" s="18" t="n"/>
@@ -3485,7 +3485,7 @@
       <c r="AR58" s="19" t="n"/>
       <c r="AS58" s="9" t="inlineStr">
         <is>
-          <t>29 Jan 2019</t>
+          <t>22 Feb 2019</t>
         </is>
       </c>
       <c r="AT58" s="18" t="n"/>
@@ -3495,7 +3495,7 @@
     <row customHeight="1" ht="33" r="59" s="8">
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>18 Jan 2019</t>
+          <t>21 Feb 2019</t>
         </is>
       </c>
       <c r="D59" s="18" t="n"/>
@@ -3503,7 +3503,7 @@
       <c r="F59" s="19" t="n"/>
       <c r="G59" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H59" s="18" t="n"/>
@@ -3511,7 +3511,7 @@
       <c r="J59" s="19" t="n"/>
       <c r="K59" s="9" t="inlineStr">
         <is>
-          <t>NO SE ACEPTA LA RENUNCIA -</t>
+          <t>MINISTERIO DE EDUCACIÒN OTORGA PODER AL ABOGADO LUIS EDUARDO ARELLANO JARAMILLO. ANEXA SOPORTES DE PODER.</t>
         </is>
       </c>
       <c r="L59" s="18" t="n"/>
@@ -3539,25 +3539,17 @@
       <c r="AH59" s="18" t="n"/>
       <c r="AI59" s="18" t="n"/>
       <c r="AJ59" s="19" t="n"/>
-      <c r="AK59" s="9" t="inlineStr">
-        <is>
-          <t>18 Jan 2019</t>
-        </is>
-      </c>
+      <c r="AK59" s="9" t="inlineStr"/>
       <c r="AL59" s="18" t="n"/>
       <c r="AM59" s="18" t="n"/>
       <c r="AN59" s="19" t="n"/>
-      <c r="AO59" s="9" t="inlineStr">
-        <is>
-          <t>18 Jan 2019</t>
-        </is>
-      </c>
+      <c r="AO59" s="9" t="inlineStr"/>
       <c r="AP59" s="18" t="n"/>
       <c r="AQ59" s="18" t="n"/>
       <c r="AR59" s="19" t="n"/>
       <c r="AS59" s="9" t="inlineStr">
         <is>
-          <t>18 Jan 2019</t>
+          <t>21 Feb 2019</t>
         </is>
       </c>
       <c r="AT59" s="18" t="n"/>
@@ -3567,7 +3559,7 @@
     <row customHeight="1" ht="33" r="60" s="8">
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>12 Dec 2018</t>
+          <t>29 Jan 2019</t>
         </is>
       </c>
       <c r="D60" s="18" t="n"/>
@@ -3575,7 +3567,7 @@
       <c r="F60" s="19" t="n"/>
       <c r="G60" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H60" s="18" t="n"/>
@@ -3583,7 +3575,7 @@
       <c r="J60" s="19" t="n"/>
       <c r="K60" s="9" t="inlineStr">
         <is>
-          <t>ABOGADO CARLOS ALBERTO VELEZ ALEGRIA ALLEGA PODER CONFERIDO POR EL MINISTERIO DE EDUCACION NACIONAL</t>
+          <t>PARA RECONOCER PERSONERÍA</t>
         </is>
       </c>
       <c r="L60" s="18" t="n"/>
@@ -3621,7 +3613,7 @@
       <c r="AR60" s="19" t="n"/>
       <c r="AS60" s="9" t="inlineStr">
         <is>
-          <t>12 Dec 2018</t>
+          <t>29 Jan 2019</t>
         </is>
       </c>
       <c r="AT60" s="18" t="n"/>
@@ -3631,7 +3623,7 @@
     <row customHeight="1" ht="33" r="61" s="8">
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>11 Dec 2018</t>
+          <t>18 Jan 2019</t>
         </is>
       </c>
       <c r="D61" s="18" t="n"/>
@@ -3639,7 +3631,7 @@
       <c r="F61" s="19" t="n"/>
       <c r="G61" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H61" s="18" t="n"/>
@@ -3647,7 +3639,7 @@
       <c r="J61" s="19" t="n"/>
       <c r="K61" s="9" t="inlineStr">
         <is>
-          <t>ABOGADO CARLOS ALBERTO VELEZ ALEGRIA ALLEGA PODER CONFERIDO POR EL MINISTERIO DE EDUCACION NACIONAL</t>
+          <t>NO SE ACEPTA LA RENUNCIA -</t>
         </is>
       </c>
       <c r="L61" s="18" t="n"/>
@@ -3675,17 +3667,25 @@
       <c r="AH61" s="18" t="n"/>
       <c r="AI61" s="18" t="n"/>
       <c r="AJ61" s="19" t="n"/>
-      <c r="AK61" s="9" t="inlineStr"/>
+      <c r="AK61" s="9" t="inlineStr">
+        <is>
+          <t>18 Jan 2019</t>
+        </is>
+      </c>
       <c r="AL61" s="18" t="n"/>
       <c r="AM61" s="18" t="n"/>
       <c r="AN61" s="19" t="n"/>
-      <c r="AO61" s="9" t="inlineStr"/>
+      <c r="AO61" s="9" t="inlineStr">
+        <is>
+          <t>18 Jan 2019</t>
+        </is>
+      </c>
       <c r="AP61" s="18" t="n"/>
       <c r="AQ61" s="18" t="n"/>
       <c r="AR61" s="19" t="n"/>
       <c r="AS61" s="9" t="inlineStr">
         <is>
-          <t>11 Dec 2018</t>
+          <t>18 Jan 2019</t>
         </is>
       </c>
       <c r="AT61" s="18" t="n"/>
@@ -3695,7 +3695,7 @@
     <row customHeight="1" ht="33" r="62" s="8">
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>21 Nov 2018</t>
+          <t>12 Dec 2018</t>
         </is>
       </c>
       <c r="D62" s="18" t="n"/>
@@ -3703,7 +3703,7 @@
       <c r="F62" s="19" t="n"/>
       <c r="G62" s="9" t="inlineStr">
         <is>
-          <t>AUTO DENEGANDO LA SOLICITUD</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H62" s="18" t="n"/>
@@ -3711,7 +3711,7 @@
       <c r="J62" s="19" t="n"/>
       <c r="K62" s="9" t="inlineStr">
         <is>
-          <t>EN MEMORIAL VISIBLE A FOLIO 1851 DEL CUADERNO PRINCIPAL, LA ABOGADA SONIA GUZMÁN MUÑOZ, APODERADA DEL MINISTERIO DE EDUCACIÓN NACIONAL, RENUNCIÓ AL PODER QUE LE FUE OTORGADO. LA LEY DETERMINA QUE LA RENUNCIA NO PONE TÉRMINO AL PODER SINO CINCO (5) DÍAS DESPUÉS DE PRESENTADO EL MEMORIAL DE RENUNCIA ANTE EL JUEZ, ACOMPAÑADO DE LA COMUNICACIÓN ENVIADA AL PODERDANTE EN TAL SENTIDO, DE CONFORMIDAD CON EL ARTÍCULO 76 DEL CÓDIGO GENERAL DEL PROCESO. CONFORME A LO ANTERIOR, EL DESPACHO NO ACEPTA LA RENUNCIA A DICHO PODER, TODA VEZ QUE LA ABOGADA NO ALLEGÓ LA RESPECTIVA COMUNICACIÓN ENVIADA AL PODERDANTE, EN LA QUE LE INFORMA QUE RENUNCIA AL PODER A ELLA CONFERIDO.</t>
+          <t>ABOGADO CARLOS ALBERTO VELEZ ALEGRIA ALLEGA PODER CONFERIDO POR EL MINISTERIO DE EDUCACION NACIONAL</t>
         </is>
       </c>
       <c r="L62" s="18" t="n"/>
@@ -3749,7 +3749,7 @@
       <c r="AR62" s="19" t="n"/>
       <c r="AS62" s="9" t="inlineStr">
         <is>
-          <t>17 Jan 2019</t>
+          <t>12 Dec 2018</t>
         </is>
       </c>
       <c r="AT62" s="18" t="n"/>
@@ -3759,7 +3759,7 @@
     <row customHeight="1" ht="33" r="63" s="8">
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>12 Oct 2018</t>
+          <t>11 Dec 2018</t>
         </is>
       </c>
       <c r="D63" s="18" t="n"/>
@@ -3767,7 +3767,7 @@
       <c r="F63" s="19" t="n"/>
       <c r="G63" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H63" s="18" t="n"/>
@@ -3775,7 +3775,7 @@
       <c r="J63" s="19" t="n"/>
       <c r="K63" s="9" t="inlineStr">
         <is>
-          <t>APODERADA DEL MINISTERIO DE EDUCACIÓN NACIONAL PRESENTA RENUNCIA DE PODER</t>
+          <t>ABOGADO CARLOS ALBERTO VELEZ ALEGRIA ALLEGA PODER CONFERIDO POR EL MINISTERIO DE EDUCACION NACIONAL</t>
         </is>
       </c>
       <c r="L63" s="18" t="n"/>
@@ -3813,7 +3813,7 @@
       <c r="AR63" s="19" t="n"/>
       <c r="AS63" s="9" t="inlineStr">
         <is>
-          <t>12 Oct 2018</t>
+          <t>11 Dec 2018</t>
         </is>
       </c>
       <c r="AT63" s="18" t="n"/>
@@ -3823,7 +3823,7 @@
     <row customHeight="1" ht="33" r="64" s="8">
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>11 Oct 2018</t>
+          <t>21 Nov 2018</t>
         </is>
       </c>
       <c r="D64" s="18" t="n"/>
@@ -3831,7 +3831,7 @@
       <c r="F64" s="19" t="n"/>
       <c r="G64" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>AUTO DENEGANDO LA SOLICITUD</t>
         </is>
       </c>
       <c r="H64" s="18" t="n"/>
@@ -3839,7 +3839,7 @@
       <c r="J64" s="19" t="n"/>
       <c r="K64" s="9" t="inlineStr">
         <is>
-          <t>APODERADA DEL MINISTERIO DE EDUCACIÓN NACIONAL PRESENTA RENUNCIA DE PODER</t>
+          <t>EN MEMORIAL VISIBLE A FOLIO 1851 DEL CUADERNO PRINCIPAL, LA ABOGADA SONIA GUZMÁN MUÑOZ, APODERADA DEL MINISTERIO DE EDUCACIÓN NACIONAL, RENUNCIÓ AL PODER QUE LE FUE OTORGADO. LA LEY DETERMINA QUE LA RENUNCIA NO PONE TÉRMINO AL PODER SINO CINCO (5) DÍAS DESPUÉS DE PRESENTADO EL MEMORIAL DE RENUNCIA ANTE EL JUEZ, ACOMPAÑADO DE LA COMUNICACIÓN ENVIADA AL PODERDANTE EN TAL SENTIDO, DE CONFORMIDAD CON EL ARTÍCULO 76 DEL CÓDIGO GENERAL DEL PROCESO. CONFORME A LO ANTERIOR, EL DESPACHO NO ACEPTA LA RENUNCIA A DICHO PODER, TODA VEZ QUE LA ABOGADA NO ALLEGÓ LA RESPECTIVA COMUNICACIÓN ENVIADA AL PODERDANTE, EN LA QUE LE INFORMA QUE RENUNCIA AL PODER A ELLA CONFERIDO.</t>
         </is>
       </c>
       <c r="L64" s="18" t="n"/>
@@ -3877,7 +3877,7 @@
       <c r="AR64" s="19" t="n"/>
       <c r="AS64" s="9" t="inlineStr">
         <is>
-          <t>11 Oct 2018</t>
+          <t>17 Jan 2019</t>
         </is>
       </c>
       <c r="AT64" s="18" t="n"/>
@@ -3887,7 +3887,7 @@
     <row customHeight="1" ht="33" r="65" s="8">
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>11 May 2018</t>
+          <t>12 Oct 2018</t>
         </is>
       </c>
       <c r="D65" s="18" t="n"/>
@@ -3895,7 +3895,7 @@
       <c r="F65" s="19" t="n"/>
       <c r="G65" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H65" s="18" t="n"/>
@@ -3903,7 +3903,7 @@
       <c r="J65" s="19" t="n"/>
       <c r="K65" s="9" t="inlineStr">
         <is>
-          <t>PARA FALLO</t>
+          <t>APODERADA DEL MINISTERIO DE EDUCACIÓN NACIONAL PRESENTA RENUNCIA DE PODER</t>
         </is>
       </c>
       <c r="L65" s="18" t="n"/>
@@ -3941,7 +3941,7 @@
       <c r="AR65" s="19" t="n"/>
       <c r="AS65" s="9" t="inlineStr">
         <is>
-          <t>10 May 2018</t>
+          <t>12 Oct 2018</t>
         </is>
       </c>
       <c r="AT65" s="18" t="n"/>
@@ -3951,7 +3951,7 @@
     <row customHeight="1" ht="33" r="66" s="8">
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>27 Apr 2018</t>
+          <t>11 Oct 2018</t>
         </is>
       </c>
       <c r="D66" s="18" t="n"/>
@@ -3959,7 +3959,7 @@
       <c r="F66" s="19" t="n"/>
       <c r="G66" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H66" s="18" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="J66" s="19" t="n"/>
       <c r="K66" s="9" t="inlineStr">
         <is>
-          <t>ACEPTA RENUNCIA DE ANA MARCELA CAROLINA GARCIA CARRILLO -</t>
+          <t>APODERADA DEL MINISTERIO DE EDUCACIÓN NACIONAL PRESENTA RENUNCIA DE PODER</t>
         </is>
       </c>
       <c r="L66" s="18" t="n"/>
@@ -3995,25 +3995,17 @@
       <c r="AH66" s="18" t="n"/>
       <c r="AI66" s="18" t="n"/>
       <c r="AJ66" s="19" t="n"/>
-      <c r="AK66" s="9" t="inlineStr">
-        <is>
-          <t>27 Apr 2018</t>
-        </is>
-      </c>
+      <c r="AK66" s="9" t="inlineStr"/>
       <c r="AL66" s="18" t="n"/>
       <c r="AM66" s="18" t="n"/>
       <c r="AN66" s="19" t="n"/>
-      <c r="AO66" s="9" t="inlineStr">
-        <is>
-          <t>27 Apr 2018</t>
-        </is>
-      </c>
+      <c r="AO66" s="9" t="inlineStr"/>
       <c r="AP66" s="18" t="n"/>
       <c r="AQ66" s="18" t="n"/>
       <c r="AR66" s="19" t="n"/>
       <c r="AS66" s="9" t="inlineStr">
         <is>
-          <t>27 Apr 2018</t>
+          <t>11 Oct 2018</t>
         </is>
       </c>
       <c r="AT66" s="18" t="n"/>
@@ -4023,7 +4015,7 @@
     <row customHeight="1" ht="33" r="67" s="8">
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>27 Apr 2018</t>
+          <t>11 May 2018</t>
         </is>
       </c>
       <c r="D67" s="18" t="n"/>
@@ -4031,7 +4023,7 @@
       <c r="F67" s="19" t="n"/>
       <c r="G67" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H67" s="18" t="n"/>
@@ -4039,7 +4031,7 @@
       <c r="J67" s="19" t="n"/>
       <c r="K67" s="9" t="inlineStr">
         <is>
-          <t>ACEPTA RENUNCIA - RECONOCE PERSONERIA -</t>
+          <t>PARA FALLO</t>
         </is>
       </c>
       <c r="L67" s="18" t="n"/>
@@ -4067,25 +4059,17 @@
       <c r="AH67" s="18" t="n"/>
       <c r="AI67" s="18" t="n"/>
       <c r="AJ67" s="19" t="n"/>
-      <c r="AK67" s="9" t="inlineStr">
-        <is>
-          <t>27 Apr 2018</t>
-        </is>
-      </c>
+      <c r="AK67" s="9" t="inlineStr"/>
       <c r="AL67" s="18" t="n"/>
       <c r="AM67" s="18" t="n"/>
       <c r="AN67" s="19" t="n"/>
-      <c r="AO67" s="9" t="inlineStr">
-        <is>
-          <t>27 Apr 2018</t>
-        </is>
-      </c>
+      <c r="AO67" s="9" t="inlineStr"/>
       <c r="AP67" s="18" t="n"/>
       <c r="AQ67" s="18" t="n"/>
       <c r="AR67" s="19" t="n"/>
       <c r="AS67" s="9" t="inlineStr">
         <is>
-          <t>27 Apr 2018</t>
+          <t>10 May 2018</t>
         </is>
       </c>
       <c r="AT67" s="18" t="n"/>
@@ -4095,7 +4079,7 @@
     <row customHeight="1" ht="33" r="68" s="8">
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>16 Apr 2018</t>
+          <t>27 Apr 2018</t>
         </is>
       </c>
       <c r="D68" s="18" t="n"/>
@@ -4103,7 +4087,7 @@
       <c r="F68" s="19" t="n"/>
       <c r="G68" s="9" t="inlineStr">
         <is>
-          <t>AUTO QUE ADMITE LA RENUNCIA</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H68" s="18" t="n"/>
@@ -4111,7 +4095,7 @@
       <c r="J68" s="19" t="n"/>
       <c r="K68" s="9" t="inlineStr">
         <is>
-          <t>ACÉPTASE LA RENUNCIA AL PODER PRESENTADA POR LA ABOGADA ANA MARCELA CAROLINA CARRILLO COMO APODERADA DEL MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL.</t>
+          <t>ACEPTA RENUNCIA DE ANA MARCELA CAROLINA GARCIA CARRILLO -</t>
         </is>
       </c>
       <c r="L68" s="18" t="n"/>
@@ -4139,17 +4123,25 @@
       <c r="AH68" s="18" t="n"/>
       <c r="AI68" s="18" t="n"/>
       <c r="AJ68" s="19" t="n"/>
-      <c r="AK68" s="9" t="inlineStr"/>
+      <c r="AK68" s="9" t="inlineStr">
+        <is>
+          <t>27 Apr 2018</t>
+        </is>
+      </c>
       <c r="AL68" s="18" t="n"/>
       <c r="AM68" s="18" t="n"/>
       <c r="AN68" s="19" t="n"/>
-      <c r="AO68" s="9" t="inlineStr"/>
+      <c r="AO68" s="9" t="inlineStr">
+        <is>
+          <t>27 Apr 2018</t>
+        </is>
+      </c>
       <c r="AP68" s="18" t="n"/>
       <c r="AQ68" s="18" t="n"/>
       <c r="AR68" s="19" t="n"/>
       <c r="AS68" s="9" t="inlineStr">
         <is>
-          <t>26 Apr 2018</t>
+          <t>27 Apr 2018</t>
         </is>
       </c>
       <c r="AT68" s="18" t="n"/>
@@ -4159,7 +4151,7 @@
     <row customHeight="1" ht="33" r="69" s="8">
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>16 Apr 2018</t>
+          <t>27 Apr 2018</t>
         </is>
       </c>
       <c r="D69" s="18" t="n"/>
@@ -4167,7 +4159,7 @@
       <c r="F69" s="19" t="n"/>
       <c r="G69" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERIA</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H69" s="18" t="n"/>
@@ -4175,7 +4167,7 @@
       <c r="J69" s="19" t="n"/>
       <c r="K69" s="9" t="inlineStr">
         <is>
-          <t>ACÉPTASE LA RENUNCIA AL PODER PRESENTADA POR EL ABOGADO LUIS GRABRIEL ARBELÁEZ MARÍN. RECONOCE PERSONERÍA A LA ABOGADA SONIA GUZMÁN MUÑOZ PARA ACTUAR COMO APODERADA DEL MINISTERIO DE EDUCACIÓN.</t>
+          <t>ACEPTA RENUNCIA - RECONOCE PERSONERIA -</t>
         </is>
       </c>
       <c r="L69" s="18" t="n"/>
@@ -4203,17 +4195,25 @@
       <c r="AH69" s="18" t="n"/>
       <c r="AI69" s="18" t="n"/>
       <c r="AJ69" s="19" t="n"/>
-      <c r="AK69" s="9" t="inlineStr"/>
+      <c r="AK69" s="9" t="inlineStr">
+        <is>
+          <t>27 Apr 2018</t>
+        </is>
+      </c>
       <c r="AL69" s="18" t="n"/>
       <c r="AM69" s="18" t="n"/>
       <c r="AN69" s="19" t="n"/>
-      <c r="AO69" s="9" t="inlineStr"/>
+      <c r="AO69" s="9" t="inlineStr">
+        <is>
+          <t>27 Apr 2018</t>
+        </is>
+      </c>
       <c r="AP69" s="18" t="n"/>
       <c r="AQ69" s="18" t="n"/>
       <c r="AR69" s="19" t="n"/>
       <c r="AS69" s="9" t="inlineStr">
         <is>
-          <t>26 Apr 2018</t>
+          <t>27 Apr 2018</t>
         </is>
       </c>
       <c r="AT69" s="18" t="n"/>
@@ -4223,7 +4223,7 @@
     <row customHeight="1" ht="33" r="70" s="8">
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>22 Mar 2018</t>
+          <t>16 Apr 2018</t>
         </is>
       </c>
       <c r="D70" s="18" t="n"/>
@@ -4231,7 +4231,7 @@
       <c r="F70" s="19" t="n"/>
       <c r="G70" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>AUTO QUE ADMITE LA RENUNCIA</t>
         </is>
       </c>
       <c r="H70" s="18" t="n"/>
@@ -4239,7 +4239,7 @@
       <c r="J70" s="19" t="n"/>
       <c r="K70" s="9" t="inlineStr">
         <is>
-          <t>APODERADA DEL MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL, RENUNCIA AL PODER CONFERIDO Y A SU VEZ ALLEGA COMUNICACION A LA ENTIDAD PODERDANTE</t>
+          <t>ACÉPTASE LA RENUNCIA AL PODER PRESENTADA POR LA ABOGADA ANA MARCELA CAROLINA CARRILLO COMO APODERADA DEL MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL.</t>
         </is>
       </c>
       <c r="L70" s="18" t="n"/>
@@ -4277,7 +4277,7 @@
       <c r="AR70" s="19" t="n"/>
       <c r="AS70" s="9" t="inlineStr">
         <is>
-          <t>22 Mar 2018</t>
+          <t>26 Apr 2018</t>
         </is>
       </c>
       <c r="AT70" s="18" t="n"/>
@@ -4287,7 +4287,7 @@
     <row customHeight="1" ht="33" r="71" s="8">
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>21 Mar 2018</t>
+          <t>16 Apr 2018</t>
         </is>
       </c>
       <c r="D71" s="18" t="n"/>
@@ -4295,7 +4295,7 @@
       <c r="F71" s="19" t="n"/>
       <c r="G71" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>RECONOCE PERSONERIA</t>
         </is>
       </c>
       <c r="H71" s="18" t="n"/>
@@ -4303,7 +4303,7 @@
       <c r="J71" s="19" t="n"/>
       <c r="K71" s="9" t="inlineStr">
         <is>
-          <t>APODERADA DEL MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL, RENUNCIA AL PODER CONFERIDO Y A SU VEZ ALLEGA COMUNICACION A LA ENTIDAD PODERDANTE</t>
+          <t>ACÉPTASE LA RENUNCIA AL PODER PRESENTADA POR EL ABOGADO LUIS GRABRIEL ARBELÁEZ MARÍN. RECONOCE PERSONERÍA A LA ABOGADA SONIA GUZMÁN MUÑOZ PARA ACTUAR COMO APODERADA DEL MINISTERIO DE EDUCACIÓN.</t>
         </is>
       </c>
       <c r="L71" s="18" t="n"/>
@@ -4341,7 +4341,7 @@
       <c r="AR71" s="19" t="n"/>
       <c r="AS71" s="9" t="inlineStr">
         <is>
-          <t>21 Mar 2018</t>
+          <t>26 Apr 2018</t>
         </is>
       </c>
       <c r="AT71" s="18" t="n"/>
@@ -4351,7 +4351,7 @@
     <row customHeight="1" ht="33" r="72" s="8">
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>13 Mar 2018</t>
+          <t>22 Mar 2018</t>
         </is>
       </c>
       <c r="D72" s="18" t="n"/>
@@ -4359,7 +4359,7 @@
       <c r="F72" s="19" t="n"/>
       <c r="G72" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H72" s="18" t="n"/>
@@ -4367,7 +4367,7 @@
       <c r="J72" s="19" t="n"/>
       <c r="K72" s="9" t="inlineStr">
         <is>
-          <t>PARA PROVEER</t>
+          <t>APODERADA DEL MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL, RENUNCIA AL PODER CONFERIDO Y A SU VEZ ALLEGA COMUNICACION A LA ENTIDAD PODERDANTE</t>
         </is>
       </c>
       <c r="L72" s="18" t="n"/>
@@ -4405,7 +4405,7 @@
       <c r="AR72" s="19" t="n"/>
       <c r="AS72" s="9" t="inlineStr">
         <is>
-          <t>12 Mar 2018</t>
+          <t>22 Mar 2018</t>
         </is>
       </c>
       <c r="AT72" s="18" t="n"/>
@@ -4415,7 +4415,7 @@
     <row customHeight="1" ht="33" r="73" s="8">
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>05 Mar 2018</t>
+          <t>21 Mar 2018</t>
         </is>
       </c>
       <c r="D73" s="18" t="n"/>
@@ -4431,7 +4431,7 @@
       <c r="J73" s="19" t="n"/>
       <c r="K73" s="9" t="inlineStr">
         <is>
-          <t>MINISTERIO DE EDUCACION CONFIERE PODER</t>
+          <t>APODERADA DEL MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL, RENUNCIA AL PODER CONFERIDO Y A SU VEZ ALLEGA COMUNICACION A LA ENTIDAD PODERDANTE</t>
         </is>
       </c>
       <c r="L73" s="18" t="n"/>
@@ -4469,7 +4469,7 @@
       <c r="AR73" s="19" t="n"/>
       <c r="AS73" s="9" t="inlineStr">
         <is>
-          <t>05 Mar 2018</t>
+          <t>21 Mar 2018</t>
         </is>
       </c>
       <c r="AT73" s="18" t="n"/>
@@ -4479,7 +4479,7 @@
     <row customHeight="1" ht="33" r="74" s="8">
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>23 Feb 2018</t>
+          <t>13 Mar 2018</t>
         </is>
       </c>
       <c r="D74" s="18" t="n"/>
@@ -4487,7 +4487,7 @@
       <c r="F74" s="19" t="n"/>
       <c r="G74" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H74" s="18" t="n"/>
@@ -4495,7 +4495,7 @@
       <c r="J74" s="19" t="n"/>
       <c r="K74" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERIA - DESGLOSAR FOLIOS 1795 A 1797 -</t>
+          <t>PARA PROVEER</t>
         </is>
       </c>
       <c r="L74" s="18" t="n"/>
@@ -4523,25 +4523,17 @@
       <c r="AH74" s="18" t="n"/>
       <c r="AI74" s="18" t="n"/>
       <c r="AJ74" s="19" t="n"/>
-      <c r="AK74" s="9" t="inlineStr">
-        <is>
-          <t>23 Feb 2018</t>
-        </is>
-      </c>
+      <c r="AK74" s="9" t="inlineStr"/>
       <c r="AL74" s="18" t="n"/>
       <c r="AM74" s="18" t="n"/>
       <c r="AN74" s="19" t="n"/>
-      <c r="AO74" s="9" t="inlineStr">
-        <is>
-          <t>23 Feb 2018</t>
-        </is>
-      </c>
+      <c r="AO74" s="9" t="inlineStr"/>
       <c r="AP74" s="18" t="n"/>
       <c r="AQ74" s="18" t="n"/>
       <c r="AR74" s="19" t="n"/>
       <c r="AS74" s="9" t="inlineStr">
         <is>
-          <t>22 Feb 2018</t>
+          <t>12 Mar 2018</t>
         </is>
       </c>
       <c r="AT74" s="18" t="n"/>
@@ -4551,7 +4543,7 @@
     <row customHeight="1" ht="33" r="75" s="8">
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>20 Feb 2018</t>
+          <t>05 Mar 2018</t>
         </is>
       </c>
       <c r="D75" s="18" t="n"/>
@@ -4559,7 +4551,7 @@
       <c r="F75" s="19" t="n"/>
       <c r="G75" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H75" s="18" t="n"/>
@@ -4567,7 +4559,7 @@
       <c r="J75" s="19" t="n"/>
       <c r="K75" s="9" t="inlineStr">
         <is>
-          <t>LA RENUNCIA DE PODER PRESENTADA POR EL APODERADO DE LA NACIÓN- MINISTERIO DE EDUCACIÓN NACIONAL</t>
+          <t>MINISTERIO DE EDUCACION CONFIERE PODER</t>
         </is>
       </c>
       <c r="L75" s="18" t="n"/>
@@ -4605,7 +4597,7 @@
       <c r="AR75" s="19" t="n"/>
       <c r="AS75" s="9" t="inlineStr">
         <is>
-          <t>20 Feb 2018</t>
+          <t>05 Mar 2018</t>
         </is>
       </c>
       <c r="AT75" s="18" t="n"/>
@@ -4615,7 +4607,7 @@
     <row customHeight="1" ht="33" r="76" s="8">
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>19 Feb 2018</t>
+          <t>23 Feb 2018</t>
         </is>
       </c>
       <c r="D76" s="18" t="n"/>
@@ -4623,7 +4615,7 @@
       <c r="F76" s="19" t="n"/>
       <c r="G76" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H76" s="18" t="n"/>
@@ -4631,7 +4623,7 @@
       <c r="J76" s="19" t="n"/>
       <c r="K76" s="9" t="inlineStr">
         <is>
-          <t>LA RENUNCIA DE PODER PRESENTADA POR EL APODERADO DE LA NACIÓN- MINISTERIO DE EDUCACIÓN NACIONAL</t>
+          <t>RECONOCE PERSONERIA - DESGLOSAR FOLIOS 1795 A 1797 -</t>
         </is>
       </c>
       <c r="L76" s="18" t="n"/>
@@ -4659,17 +4651,25 @@
       <c r="AH76" s="18" t="n"/>
       <c r="AI76" s="18" t="n"/>
       <c r="AJ76" s="19" t="n"/>
-      <c r="AK76" s="9" t="inlineStr"/>
+      <c r="AK76" s="9" t="inlineStr">
+        <is>
+          <t>23 Feb 2018</t>
+        </is>
+      </c>
       <c r="AL76" s="18" t="n"/>
       <c r="AM76" s="18" t="n"/>
       <c r="AN76" s="19" t="n"/>
-      <c r="AO76" s="9" t="inlineStr"/>
+      <c r="AO76" s="9" t="inlineStr">
+        <is>
+          <t>23 Feb 2018</t>
+        </is>
+      </c>
       <c r="AP76" s="18" t="n"/>
       <c r="AQ76" s="18" t="n"/>
       <c r="AR76" s="19" t="n"/>
       <c r="AS76" s="9" t="inlineStr">
         <is>
-          <t>19 Feb 2018</t>
+          <t>22 Feb 2018</t>
         </is>
       </c>
       <c r="AT76" s="18" t="n"/>
@@ -4679,7 +4679,7 @@
     <row customHeight="1" ht="33" r="77" s="8">
       <c r="C77" s="9" t="inlineStr">
         <is>
-          <t>09 Feb 2018</t>
+          <t>20 Feb 2018</t>
         </is>
       </c>
       <c r="D77" s="18" t="n"/>
@@ -4687,7 +4687,7 @@
       <c r="F77" s="19" t="n"/>
       <c r="G77" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERIA</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H77" s="18" t="n"/>
@@ -4695,7 +4695,7 @@
       <c r="J77" s="19" t="n"/>
       <c r="K77" s="9" t="inlineStr">
         <is>
-          <t>RECONOCE PERSONERÍA AL ABOGADO CARLOS ALBERTO ÁLVAREZ PÉREZ PARA ACTUAR COMO APODERADO DE LA NACIÓN- MINISTERIO DE MINAS Y ENERGÍA. ORDENA DESGLOSAR LOS FOLIOS 1795 Y 1797 Y ENVIAR AL RESPECTIVO DESPACHO.</t>
+          <t>LA RENUNCIA DE PODER PRESENTADA POR EL APODERADO DE LA NACIÓN- MINISTERIO DE EDUCACIÓN NACIONAL</t>
         </is>
       </c>
       <c r="L77" s="18" t="n"/>
@@ -4733,7 +4733,7 @@
       <c r="AR77" s="19" t="n"/>
       <c r="AS77" s="9" t="inlineStr">
         <is>
-          <t>22 Feb 2018</t>
+          <t>20 Feb 2018</t>
         </is>
       </c>
       <c r="AT77" s="18" t="n"/>
@@ -4743,7 +4743,7 @@
     <row customHeight="1" ht="33" r="78" s="8">
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>26 Jan 2018</t>
+          <t>19 Feb 2018</t>
         </is>
       </c>
       <c r="D78" s="18" t="n"/>
@@ -4751,7 +4751,7 @@
       <c r="F78" s="19" t="n"/>
       <c r="G78" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO PARA FALLO</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H78" s="18" t="n"/>
@@ -4759,7 +4759,7 @@
       <c r="J78" s="19" t="n"/>
       <c r="K78" s="9" t="inlineStr">
         <is>
-          <t>PARA ELABORAR PROYECTO DE SENTENCIA</t>
+          <t>LA RENUNCIA DE PODER PRESENTADA POR EL APODERADO DE LA NACIÓN- MINISTERIO DE EDUCACIÓN NACIONAL</t>
         </is>
       </c>
       <c r="L78" s="18" t="n"/>
@@ -4797,7 +4797,7 @@
       <c r="AR78" s="19" t="n"/>
       <c r="AS78" s="9" t="inlineStr">
         <is>
-          <t>26 Jan 2018</t>
+          <t>19 Feb 2018</t>
         </is>
       </c>
       <c r="AT78" s="18" t="n"/>
@@ -4807,7 +4807,7 @@
     <row customHeight="1" ht="33" r="79" s="8">
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>24 Jan 2018</t>
+          <t>09 Feb 2018</t>
         </is>
       </c>
       <c r="D79" s="18" t="n"/>
@@ -4815,7 +4815,7 @@
       <c r="F79" s="19" t="n"/>
       <c r="G79" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES POR CORRESPONDENCIA</t>
+          <t>RECONOCE PERSONERIA</t>
         </is>
       </c>
       <c r="H79" s="18" t="n"/>
@@ -4823,7 +4823,7 @@
       <c r="J79" s="19" t="n"/>
       <c r="K79" s="9" t="inlineStr">
         <is>
-          <t>EL APODERADO DEL MINISTERIO DE MINAS Y ENERGÍA PRESENTA ALEGATOS DE CONCLUSIÓN, ANEXA PODER CON SOPORTES.</t>
+          <t>RECONOCE PERSONERÍA AL ABOGADO CARLOS ALBERTO ÁLVAREZ PÉREZ PARA ACTUAR COMO APODERADO DE LA NACIÓN- MINISTERIO DE MINAS Y ENERGÍA. ORDENA DESGLOSAR LOS FOLIOS 1795 Y 1797 Y ENVIAR AL RESPECTIVO DESPACHO.</t>
         </is>
       </c>
       <c r="L79" s="18" t="n"/>
@@ -4861,7 +4861,7 @@
       <c r="AR79" s="19" t="n"/>
       <c r="AS79" s="9" t="inlineStr">
         <is>
-          <t>24 Jan 2018</t>
+          <t>22 Feb 2018</t>
         </is>
       </c>
       <c r="AT79" s="18" t="n"/>
@@ -4871,7 +4871,7 @@
     <row customHeight="1" ht="33" r="80" s="8">
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>15 Jan 2018</t>
+          <t>26 Jan 2018</t>
         </is>
       </c>
       <c r="D80" s="18" t="n"/>
@@ -4879,7 +4879,7 @@
       <c r="F80" s="19" t="n"/>
       <c r="G80" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES POR CORREO ELECTRONICO</t>
+          <t>AL DESPACHO PARA FALLO</t>
         </is>
       </c>
       <c r="H80" s="18" t="n"/>
@@ -4887,7 +4887,7 @@
       <c r="J80" s="19" t="n"/>
       <c r="K80" s="9" t="inlineStr">
         <is>
-          <t>ALEGATOS DE CONCLUSIÓN PRESENTADOS POR EL MINISTERIO DE MINAS (CORREO ELECTRÓNICO RECIBIDO EL 12/01/2018 - 12:04 PM)</t>
+          <t>PARA ELABORAR PROYECTO DE SENTENCIA</t>
         </is>
       </c>
       <c r="L80" s="18" t="n"/>
@@ -4925,7 +4925,7 @@
       <c r="AR80" s="19" t="n"/>
       <c r="AS80" s="9" t="inlineStr">
         <is>
-          <t>15 Jan 2018</t>
+          <t>26 Jan 2018</t>
         </is>
       </c>
       <c r="AT80" s="18" t="n"/>
@@ -4935,7 +4935,7 @@
     <row customHeight="1" ht="33" r="81" s="8">
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>18 Dec 2017</t>
+          <t>24 Jan 2018</t>
         </is>
       </c>
       <c r="D81" s="18" t="n"/>
@@ -4943,7 +4943,7 @@
       <c r="F81" s="19" t="n"/>
       <c r="G81" s="9" t="inlineStr">
         <is>
-          <t>ALEGATOS DE CONCLUSION</t>
+          <t>RECIBE MEMORIALES POR CORRESPONDENCIA</t>
         </is>
       </c>
       <c r="H81" s="18" t="n"/>
@@ -4951,7 +4951,7 @@
       <c r="J81" s="19" t="n"/>
       <c r="K81" s="9" t="inlineStr">
         <is>
-          <t>PRESENTADO POR LA APODERADA DE LA NACION MINISTERIO DE SALUD Y PROTECCION SOCIAL</t>
+          <t>EL APODERADO DEL MINISTERIO DE MINAS Y ENERGÍA PRESENTA ALEGATOS DE CONCLUSIÓN, ANEXA PODER CON SOPORTES.</t>
         </is>
       </c>
       <c r="L81" s="18" t="n"/>
@@ -4989,7 +4989,7 @@
       <c r="AR81" s="19" t="n"/>
       <c r="AS81" s="9" t="inlineStr">
         <is>
-          <t>18 Dec 2017</t>
+          <t>24 Jan 2018</t>
         </is>
       </c>
       <c r="AT81" s="18" t="n"/>
@@ -4999,7 +4999,7 @@
     <row customHeight="1" ht="33" r="82" s="8">
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>18 Dec 2017</t>
+          <t>15 Jan 2018</t>
         </is>
       </c>
       <c r="D82" s="18" t="n"/>
@@ -5007,7 +5007,7 @@
       <c r="F82" s="19" t="n"/>
       <c r="G82" s="9" t="inlineStr">
         <is>
-          <t>ALEGATOS DE CONCLUSION</t>
+          <t>RECIBE MEMORIALES POR CORREO ELECTRONICO</t>
         </is>
       </c>
       <c r="H82" s="18" t="n"/>
@@ -5015,7 +5015,7 @@
       <c r="J82" s="19" t="n"/>
       <c r="K82" s="9" t="inlineStr">
         <is>
-          <t>PRESENTADO POR EL APODERADO DE LA PARTE ACTORA</t>
+          <t>ALEGATOS DE CONCLUSIÓN PRESENTADOS POR EL MINISTERIO DE MINAS (CORREO ELECTRÓNICO RECIBIDO EL 12/01/2018 - 12:04 PM)</t>
         </is>
       </c>
       <c r="L82" s="18" t="n"/>
@@ -5053,7 +5053,7 @@
       <c r="AR82" s="19" t="n"/>
       <c r="AS82" s="9" t="inlineStr">
         <is>
-          <t>18 Dec 2017</t>
+          <t>15 Jan 2018</t>
         </is>
       </c>
       <c r="AT82" s="18" t="n"/>
@@ -5079,7 +5079,7 @@
       <c r="J83" s="19" t="n"/>
       <c r="K83" s="9" t="inlineStr">
         <is>
-          <t>PRESETADO POR EL APODERADO DEL MINISTERIO DE TRABAJO</t>
+          <t>PRESENTADO POR LA APODERADA DE LA NACION MINISTERIO DE SALUD Y PROTECCION SOCIAL</t>
         </is>
       </c>
       <c r="L83" s="18" t="n"/>
@@ -5143,7 +5143,7 @@
       <c r="J84" s="19" t="n"/>
       <c r="K84" s="9" t="inlineStr">
         <is>
-          <t>PRESENTADO POR LA APODERADA DE LA NACION MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL</t>
+          <t>PRESENTADO POR EL APODERADO DE LA PARTE ACTORA</t>
         </is>
       </c>
       <c r="L84" s="18" t="n"/>
@@ -5199,7 +5199,7 @@
       <c r="F85" s="19" t="n"/>
       <c r="G85" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>ALEGATOS DE CONCLUSION</t>
         </is>
       </c>
       <c r="H85" s="18" t="n"/>
@@ -5207,7 +5207,7 @@
       <c r="J85" s="19" t="n"/>
       <c r="K85" s="9" t="inlineStr">
         <is>
-          <t>APODERADA DEL DEPARTAMENTO ADMINISTRATIVO DE LA PRESIDENCIA DE LA REPÚBLICA MANIFIESTA QUE COADYUVA EN TODAS SUS PARTES LOS ALEGATOS DE CONCLUSIÓN PRESENTADOS POR EL MINISTERIO DE HACIENDA Y CRÉDITO PUBLICO</t>
+          <t>PRESETADO POR EL APODERADO DEL MINISTERIO DE TRABAJO</t>
         </is>
       </c>
       <c r="L85" s="18" t="n"/>
@@ -5255,7 +5255,7 @@
     <row customHeight="1" ht="33" r="86" s="8">
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>13 Dec 2017</t>
+          <t>18 Dec 2017</t>
         </is>
       </c>
       <c r="D86" s="18" t="n"/>
@@ -5271,7 +5271,7 @@
       <c r="J86" s="19" t="n"/>
       <c r="K86" s="9" t="inlineStr">
         <is>
-          <t>PRESENTADOS POR EL APODERADO DEL MINISTERIO DE VIVIENDA, CIUDAD Y TERRITORIO</t>
+          <t>PRESENTADO POR LA APODERADA DE LA NACION MINISTERIO DE AGRICULTURA Y DESARROLLO RURAL</t>
         </is>
       </c>
       <c r="L86" s="18" t="n"/>
@@ -5309,7 +5309,7 @@
       <c r="AR86" s="19" t="n"/>
       <c r="AS86" s="9" t="inlineStr">
         <is>
-          <t>13 Dec 2017</t>
+          <t>18 Dec 2017</t>
         </is>
       </c>
       <c r="AT86" s="18" t="n"/>
@@ -5319,7 +5319,7 @@
     <row customHeight="1" ht="33" r="87" s="8">
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>13 Dec 2017</t>
+          <t>18 Dec 2017</t>
         </is>
       </c>
       <c r="D87" s="18" t="n"/>
@@ -5327,7 +5327,7 @@
       <c r="F87" s="19" t="n"/>
       <c r="G87" s="9" t="inlineStr">
         <is>
-          <t>ALEGATOS DE CONCLUSION</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H87" s="18" t="n"/>
@@ -5335,7 +5335,7 @@
       <c r="J87" s="19" t="n"/>
       <c r="K87" s="9" t="inlineStr">
         <is>
-          <t>ALEGATOS PRESENTADOS POR LA NACIÓN - MINISTERIO DE EDUCACIÓN NACIONAL.</t>
+          <t>APODERADA DEL DEPARTAMENTO ADMINISTRATIVO DE LA PRESIDENCIA DE LA REPÚBLICA MANIFIESTA QUE COADYUVA EN TODAS SUS PARTES LOS ALEGATOS DE CONCLUSIÓN PRESENTADOS POR EL MINISTERIO DE HACIENDA Y CRÉDITO PUBLICO</t>
         </is>
       </c>
       <c r="L87" s="18" t="n"/>
@@ -5373,7 +5373,7 @@
       <c r="AR87" s="19" t="n"/>
       <c r="AS87" s="9" t="inlineStr">
         <is>
-          <t>13 Dec 2017</t>
+          <t>18 Dec 2017</t>
         </is>
       </c>
       <c r="AT87" s="18" t="n"/>
@@ -5383,7 +5383,7 @@
     <row customHeight="1" ht="33" r="88" s="8">
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>12 Dec 2017</t>
+          <t>13 Dec 2017</t>
         </is>
       </c>
       <c r="D88" s="18" t="n"/>
@@ -5399,7 +5399,7 @@
       <c r="J88" s="19" t="n"/>
       <c r="K88" s="9" t="inlineStr">
         <is>
-          <t>ALLEGADOS POR LA NACION- MINISTERIO DE COMERCIO, INDUSTRIA Y TURISMO.</t>
+          <t>PRESENTADOS POR EL APODERADO DEL MINISTERIO DE VIVIENDA, CIUDAD Y TERRITORIO</t>
         </is>
       </c>
       <c r="L88" s="18" t="n"/>
@@ -5437,7 +5437,7 @@
       <c r="AR88" s="19" t="n"/>
       <c r="AS88" s="9" t="inlineStr">
         <is>
-          <t>12 Dec 2017</t>
+          <t>13 Dec 2017</t>
         </is>
       </c>
       <c r="AT88" s="18" t="n"/>
@@ -5447,7 +5447,7 @@
     <row customHeight="1" ht="33" r="89" s="8">
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>05 Dec 2017</t>
+          <t>13 Dec 2017</t>
         </is>
       </c>
       <c r="D89" s="18" t="n"/>
@@ -5455,7 +5455,7 @@
       <c r="F89" s="19" t="n"/>
       <c r="G89" s="9" t="inlineStr">
         <is>
-          <t>NOTA AL PROCESO</t>
+          <t>ALEGATOS DE CONCLUSION</t>
         </is>
       </c>
       <c r="H89" s="18" t="n"/>
@@ -5463,7 +5463,7 @@
       <c r="J89" s="19" t="n"/>
       <c r="K89" s="9" t="inlineStr">
         <is>
-          <t>EN LA FECHA SE ENVIA EL MENSAJE DE DATOS INFORMATIVO DE QUE TRATA EL ART. 201 DEL CPACA, RELATIVO A LA NOTIFICACION POR ESTADO DEL 01/12/2017, A LAS SIGUIENTES CUENTAS DE CORREO: NOTIFICACIONESJUDICIALES@PRESIDENCIA.GOV.CO; NOTIFICACIONESJUDICIALES@MINHACIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRANSPORTE.GOV.CO; NOTIFICACIONESJUDICIALES@MINSALUD.GOV.CO; NOTIFICACIONESJUDICIALES@MINCIT.GOV.CO; NOTIFICACIONESFONVIV@MINVIVIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@ANLA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRABAJO.GOV.CO; NOTIJUDICIALES@MINMINAS.GOV.CO; NOTIFICACIONES.BOGOTA@MINDEFENSA.GOV.CO; JUDICIALES@SENADO.GOV.CO; JURIDICA@CAMARA.GOV.CO; GANDRESRODRIGUEZ@HOTMAIL.COM; NOTIDEL4CEDO@PROCURADURIA.GOV.CO</t>
+          <t>ALEGATOS PRESENTADOS POR LA NACIÓN - MINISTERIO DE EDUCACIÓN NACIONAL.</t>
         </is>
       </c>
       <c r="L89" s="18" t="n"/>
@@ -5501,7 +5501,7 @@
       <c r="AR89" s="19" t="n"/>
       <c r="AS89" s="9" t="inlineStr">
         <is>
-          <t>05 Dec 2017</t>
+          <t>13 Dec 2017</t>
         </is>
       </c>
       <c r="AT89" s="18" t="n"/>
@@ -5511,7 +5511,7 @@
     <row customHeight="1" ht="33" r="90" s="8">
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>04 Dec 2017</t>
+          <t>12 Dec 2017</t>
         </is>
       </c>
       <c r="D90" s="18" t="n"/>
@@ -5527,7 +5527,7 @@
       <c r="J90" s="19" t="n"/>
       <c r="K90" s="9" t="inlineStr">
         <is>
-          <t>ALLEGADOS POR EL APODERADO DEL MINISTERIO DE HACIENDA Y CRÉDITO PÚBLICO</t>
+          <t>ALLEGADOS POR LA NACION- MINISTERIO DE COMERCIO, INDUSTRIA Y TURISMO.</t>
         </is>
       </c>
       <c r="L90" s="18" t="n"/>
@@ -5565,7 +5565,7 @@
       <c r="AR90" s="19" t="n"/>
       <c r="AS90" s="9" t="inlineStr">
         <is>
-          <t>04 Dec 2017</t>
+          <t>12 Dec 2017</t>
         </is>
       </c>
       <c r="AT90" s="18" t="n"/>
@@ -5575,7 +5575,7 @@
     <row customHeight="1" ht="33" r="91" s="8">
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>01 Dec 2017</t>
+          <t>05 Dec 2017</t>
         </is>
       </c>
       <c r="D91" s="18" t="n"/>
@@ -5583,7 +5583,7 @@
       <c r="F91" s="19" t="n"/>
       <c r="G91" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>NOTA AL PROCESO</t>
         </is>
       </c>
       <c r="H91" s="18" t="n"/>
@@ -5591,7 +5591,7 @@
       <c r="J91" s="19" t="n"/>
       <c r="K91" s="9" t="inlineStr">
         <is>
-          <t>TRASL. X 10 DIAS ALEGATOS -</t>
+          <t>EN LA FECHA SE ENVIA EL MENSAJE DE DATOS INFORMATIVO DE QUE TRATA EL ART. 201 DEL CPACA, RELATIVO A LA NOTIFICACION POR ESTADO DEL 01/12/2017, A LAS SIGUIENTES CUENTAS DE CORREO: NOTIFICACIONESJUDICIALES@PRESIDENCIA.GOV.CO; NOTIFICACIONESJUDICIALES@MINHACIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRANSPORTE.GOV.CO; NOTIFICACIONESJUDICIALES@MINSALUD.GOV.CO; NOTIFICACIONESJUDICIALES@MINCIT.GOV.CO; NOTIFICACIONESFONVIV@MINVIVIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@ANLA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRABAJO.GOV.CO; NOTIJUDICIALES@MINMINAS.GOV.CO; NOTIFICACIONES.BOGOTA@MINDEFENSA.GOV.CO; JUDICIALES@SENADO.GOV.CO; JURIDICA@CAMARA.GOV.CO; GANDRESRODRIGUEZ@HOTMAIL.COM; NOTIDEL4CEDO@PROCURADURIA.GOV.CO</t>
         </is>
       </c>
       <c r="L91" s="18" t="n"/>
@@ -5619,25 +5619,17 @@
       <c r="AH91" s="18" t="n"/>
       <c r="AI91" s="18" t="n"/>
       <c r="AJ91" s="19" t="n"/>
-      <c r="AK91" s="9" t="inlineStr">
-        <is>
-          <t>01 Dec 2017</t>
-        </is>
-      </c>
+      <c r="AK91" s="9" t="inlineStr"/>
       <c r="AL91" s="18" t="n"/>
       <c r="AM91" s="18" t="n"/>
       <c r="AN91" s="19" t="n"/>
-      <c r="AO91" s="9" t="inlineStr">
-        <is>
-          <t>01 Dec 2017</t>
-        </is>
-      </c>
+      <c r="AO91" s="9" t="inlineStr"/>
       <c r="AP91" s="18" t="n"/>
       <c r="AQ91" s="18" t="n"/>
       <c r="AR91" s="19" t="n"/>
       <c r="AS91" s="9" t="inlineStr">
         <is>
-          <t>01 Dec 2017</t>
+          <t>05 Dec 2017</t>
         </is>
       </c>
       <c r="AT91" s="18" t="n"/>
@@ -5647,7 +5639,7 @@
     <row customHeight="1" ht="33" r="92" s="8">
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>23 Nov 2017</t>
+          <t>04 Dec 2017</t>
         </is>
       </c>
       <c r="D92" s="18" t="n"/>
@@ -5655,7 +5647,7 @@
       <c r="F92" s="19" t="n"/>
       <c r="G92" s="9" t="inlineStr">
         <is>
-          <t>TRASLADO DE 10 DÍAS PARA ALEGATOS DE CONCLUSIÓN</t>
+          <t>ALEGATOS DE CONCLUSION</t>
         </is>
       </c>
       <c r="H92" s="18" t="n"/>
@@ -5663,7 +5655,7 @@
       <c r="J92" s="19" t="n"/>
       <c r="K92" s="9" t="inlineStr">
         <is>
-          <t>CORRER TRASLADO COMÚN DE DIEZ (10) DIAS A LAS PARTES PARA QUE PRESENTEN ALEGATOS DE CONCLUSIÓN, VENCIDO ESTE, CONCÉDASELE EL MISMO TÉRMINO AL MINISTERIO PÚBLICO PARA QUE PRESENTE CONCEPTO.</t>
+          <t>ALLEGADOS POR EL APODERADO DEL MINISTERIO DE HACIENDA Y CRÉDITO PÚBLICO</t>
         </is>
       </c>
       <c r="L92" s="18" t="n"/>
@@ -5701,7 +5693,7 @@
       <c r="AR92" s="19" t="n"/>
       <c r="AS92" s="9" t="inlineStr">
         <is>
-          <t>30 Nov 2017</t>
+          <t>04 Dec 2017</t>
         </is>
       </c>
       <c r="AT92" s="18" t="n"/>
@@ -5711,7 +5703,7 @@
     <row customHeight="1" ht="33" r="93" s="8">
       <c r="C93" s="9" t="inlineStr">
         <is>
-          <t>02 Nov 2017</t>
+          <t>01 Dec 2017</t>
         </is>
       </c>
       <c r="D93" s="18" t="n"/>
@@ -5719,7 +5711,7 @@
       <c r="F93" s="19" t="n"/>
       <c r="G93" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H93" s="18" t="n"/>
@@ -5727,7 +5719,7 @@
       <c r="J93" s="19" t="n"/>
       <c r="K93" s="9" t="inlineStr">
         <is>
-          <t>PARA CONSIDERAR EL TRASLADO PARA ALEGAR DE CONCLUSIÓN</t>
+          <t>TRASL. X 10 DIAS ALEGATOS -</t>
         </is>
       </c>
       <c r="L93" s="18" t="n"/>
@@ -5755,17 +5747,25 @@
       <c r="AH93" s="18" t="n"/>
       <c r="AI93" s="18" t="n"/>
       <c r="AJ93" s="19" t="n"/>
-      <c r="AK93" s="9" t="inlineStr"/>
+      <c r="AK93" s="9" t="inlineStr">
+        <is>
+          <t>01 Dec 2017</t>
+        </is>
+      </c>
       <c r="AL93" s="18" t="n"/>
       <c r="AM93" s="18" t="n"/>
       <c r="AN93" s="19" t="n"/>
-      <c r="AO93" s="9" t="inlineStr"/>
+      <c r="AO93" s="9" t="inlineStr">
+        <is>
+          <t>01 Dec 2017</t>
+        </is>
+      </c>
       <c r="AP93" s="18" t="n"/>
       <c r="AQ93" s="18" t="n"/>
       <c r="AR93" s="19" t="n"/>
       <c r="AS93" s="9" t="inlineStr">
         <is>
-          <t>02 Nov 2017</t>
+          <t>01 Dec 2017</t>
         </is>
       </c>
       <c r="AT93" s="18" t="n"/>
@@ -5775,7 +5775,7 @@
     <row customHeight="1" ht="33" r="94" s="8">
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>27 Oct 2017</t>
+          <t>23 Nov 2017</t>
         </is>
       </c>
       <c r="D94" s="18" t="n"/>
@@ -5783,7 +5783,7 @@
       <c r="F94" s="19" t="n"/>
       <c r="G94" s="9" t="inlineStr">
         <is>
-          <t>NOTA AL PROCESO</t>
+          <t>TRASLADO DE 10 DÍAS PARA ALEGATOS DE CONCLUSIÓN</t>
         </is>
       </c>
       <c r="H94" s="18" t="n"/>
@@ -5791,7 +5791,7 @@
       <c r="J94" s="19" t="n"/>
       <c r="K94" s="9" t="inlineStr">
         <is>
-          <t>EN LA FECHA SE ENVIA EL MENSAJE DE DATOS INFORMATIVO DE QUE TRATA EL ART. 201 DEL CPACA, RELATIVO A LA NOTIFICACION POR ESTADO DEL 27/10/2017, A LAS SIGUIENTES CUENTAS DE CORREO: NOTIFICACIONESJUDICIALES@PRESIDENCIA.GOV.CO; NOTIFICACIONESJUDICIALES@MINHACIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRANSPORTE.GOV.CO; NOTIFICACIONESJUDICIALES@MINSALUD.GOV.CO; NOTIFICACIONESJUDICIALES@MINCIT.GOV.CO; NOTIFICACIONESFONVIV@MINVIVIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@ANLA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRABAJO.GOV.CO; NOTIJUDICIALES@MINMINAS.GOV.CO; NOTIFICACIONES.BOGOTA@MINDEFENSA.GOV.CO; JUDICIALES@SENADO.GOV.CO; JURIDICA@CAMARA.GOV.CO; GANDRESRODRIGUEZ@HOTMAIL.COM; NOTIDEL4CEDO@PROCURADURIA.GOV.CO</t>
+          <t>CORRER TRASLADO COMÚN DE DIEZ (10) DIAS A LAS PARTES PARA QUE PRESENTEN ALEGATOS DE CONCLUSIÓN, VENCIDO ESTE, CONCÉDASELE EL MISMO TÉRMINO AL MINISTERIO PÚBLICO PARA QUE PRESENTE CONCEPTO.</t>
         </is>
       </c>
       <c r="L94" s="18" t="n"/>
@@ -5829,7 +5829,7 @@
       <c r="AR94" s="19" t="n"/>
       <c r="AS94" s="9" t="inlineStr">
         <is>
-          <t>27 Oct 2017</t>
+          <t>30 Nov 2017</t>
         </is>
       </c>
       <c r="AT94" s="18" t="n"/>
@@ -5839,7 +5839,7 @@
     <row customHeight="1" ht="33" r="95" s="8">
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>27 Oct 2017</t>
+          <t>02 Nov 2017</t>
         </is>
       </c>
       <c r="D95" s="18" t="n"/>
@@ -5847,7 +5847,7 @@
       <c r="F95" s="19" t="n"/>
       <c r="G95" s="9" t="inlineStr">
         <is>
-          <t>POR ESTADO</t>
+          <t>AL DESPACHO</t>
         </is>
       </c>
       <c r="H95" s="18" t="n"/>
@@ -5855,7 +5855,7 @@
       <c r="J95" s="19" t="n"/>
       <c r="K95" s="9" t="inlineStr">
         <is>
-          <t>ADMITE RECURSO DE APELACION -</t>
+          <t>PARA CONSIDERAR EL TRASLADO PARA ALEGAR DE CONCLUSIÓN</t>
         </is>
       </c>
       <c r="L95" s="18" t="n"/>
@@ -5883,25 +5883,17 @@
       <c r="AH95" s="18" t="n"/>
       <c r="AI95" s="18" t="n"/>
       <c r="AJ95" s="19" t="n"/>
-      <c r="AK95" s="9" t="inlineStr">
-        <is>
-          <t>27 Oct 2017</t>
-        </is>
-      </c>
+      <c r="AK95" s="9" t="inlineStr"/>
       <c r="AL95" s="18" t="n"/>
       <c r="AM95" s="18" t="n"/>
       <c r="AN95" s="19" t="n"/>
-      <c r="AO95" s="9" t="inlineStr">
-        <is>
-          <t>27 Oct 2017</t>
-        </is>
-      </c>
+      <c r="AO95" s="9" t="inlineStr"/>
       <c r="AP95" s="18" t="n"/>
       <c r="AQ95" s="18" t="n"/>
       <c r="AR95" s="19" t="n"/>
       <c r="AS95" s="9" t="inlineStr">
         <is>
-          <t>26 Oct 2017</t>
+          <t>02 Nov 2017</t>
         </is>
       </c>
       <c r="AT95" s="18" t="n"/>
@@ -5911,7 +5903,7 @@
     <row customHeight="1" ht="33" r="96" s="8">
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>17 Oct 2017</t>
+          <t>27 Oct 2017</t>
         </is>
       </c>
       <c r="D96" s="18" t="n"/>
@@ -5919,7 +5911,7 @@
       <c r="F96" s="19" t="n"/>
       <c r="G96" s="9" t="inlineStr">
         <is>
-          <t>AUTO ADMITIENDO RECURSO</t>
+          <t>NOTA AL PROCESO</t>
         </is>
       </c>
       <c r="H96" s="18" t="n"/>
@@ -5927,7 +5919,7 @@
       <c r="J96" s="19" t="n"/>
       <c r="K96" s="9" t="inlineStr">
         <is>
-          <t>ADMÍTESE EL RECURSO DE APELACIÓN INTERPUESTO POR LA PARTE DEMANDATE COSNTRA LA SENTENCIA DEL 10 DE AGOSTO DE 2017, POR EL TRIBUNAL ADMINISTRATIVO DE CUNDINAMARCA.</t>
+          <t>EN LA FECHA SE ENVIA EL MENSAJE DE DATOS INFORMATIVO DE QUE TRATA EL ART. 201 DEL CPACA, RELATIVO A LA NOTIFICACION POR ESTADO DEL 27/10/2017, A LAS SIGUIENTES CUENTAS DE CORREO: NOTIFICACIONESJUDICIALES@PRESIDENCIA.GOV.CO; NOTIFICACIONESJUDICIALES@MINHACIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRANSPORTE.GOV.CO; NOTIFICACIONESJUDICIALES@MINSALUD.GOV.CO; NOTIFICACIONESJUDICIALES@MINCIT.GOV.CO; NOTIFICACIONESFONVIV@MINVIVIENDA.GOV.CO; NOTIFICACIONESJUDICIALES@ANLA.GOV.CO; NOTIFICACIONESJUDICIALES@MINTRABAJO.GOV.CO; NOTIJUDICIALES@MINMINAS.GOV.CO; NOTIFICACIONES.BOGOTA@MINDEFENSA.GOV.CO; JUDICIALES@SENADO.GOV.CO; JURIDICA@CAMARA.GOV.CO; GANDRESRODRIGUEZ@HOTMAIL.COM; NOTIDEL4CEDO@PROCURADURIA.GOV.CO</t>
         </is>
       </c>
       <c r="L96" s="18" t="n"/>
@@ -5965,7 +5957,7 @@
       <c r="AR96" s="19" t="n"/>
       <c r="AS96" s="9" t="inlineStr">
         <is>
-          <t>26 Oct 2017</t>
+          <t>27 Oct 2017</t>
         </is>
       </c>
       <c r="AT96" s="18" t="n"/>
@@ -5975,7 +5967,7 @@
     <row customHeight="1" ht="33" r="97" s="8">
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>04 Oct 2017</t>
+          <t>27 Oct 2017</t>
         </is>
       </c>
       <c r="D97" s="18" t="n"/>
@@ -5983,7 +5975,7 @@
       <c r="F97" s="19" t="n"/>
       <c r="G97" s="9" t="inlineStr">
         <is>
-          <t>MEMORIALES A DESPACHO</t>
+          <t>POR ESTADO</t>
         </is>
       </c>
       <c r="H97" s="18" t="n"/>
@@ -5991,7 +5983,7 @@
       <c r="J97" s="19" t="n"/>
       <c r="K97" s="9" t="inlineStr">
         <is>
-          <t>EL TRIBUNAL ADMINISTRATIVO DE CUNDINAMARCA ENVIA 1 SOBRE CERRADO CON TRATAMINETO DE RESERVA DE CONFORMIDAD CON EL AUTO DE 17 DE ABRIL DE 2015</t>
+          <t>ADMITE RECURSO DE APELACION -</t>
         </is>
       </c>
       <c r="L97" s="18" t="n"/>
@@ -6019,17 +6011,25 @@
       <c r="AH97" s="18" t="n"/>
       <c r="AI97" s="18" t="n"/>
       <c r="AJ97" s="19" t="n"/>
-      <c r="AK97" s="9" t="inlineStr"/>
+      <c r="AK97" s="9" t="inlineStr">
+        <is>
+          <t>27 Oct 2017</t>
+        </is>
+      </c>
       <c r="AL97" s="18" t="n"/>
       <c r="AM97" s="18" t="n"/>
       <c r="AN97" s="19" t="n"/>
-      <c r="AO97" s="9" t="inlineStr"/>
+      <c r="AO97" s="9" t="inlineStr">
+        <is>
+          <t>27 Oct 2017</t>
+        </is>
+      </c>
       <c r="AP97" s="18" t="n"/>
       <c r="AQ97" s="18" t="n"/>
       <c r="AR97" s="19" t="n"/>
       <c r="AS97" s="9" t="inlineStr">
         <is>
-          <t>04 Oct 2017</t>
+          <t>26 Oct 2017</t>
         </is>
       </c>
       <c r="AT97" s="18" t="n"/>
@@ -6039,7 +6039,7 @@
     <row customHeight="1" ht="33" r="98" s="8">
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>03 Oct 2017</t>
+          <t>17 Oct 2017</t>
         </is>
       </c>
       <c r="D98" s="18" t="n"/>
@@ -6047,7 +6047,7 @@
       <c r="F98" s="19" t="n"/>
       <c r="G98" s="9" t="inlineStr">
         <is>
-          <t>RECIBE MEMORIALES</t>
+          <t>AUTO ADMITIENDO RECURSO</t>
         </is>
       </c>
       <c r="H98" s="18" t="n"/>
@@ -6055,7 +6055,7 @@
       <c r="J98" s="19" t="n"/>
       <c r="K98" s="9" t="inlineStr">
         <is>
-          <t>EL TRIBUNAL ADMINISTRATIVO DE CUNDINAMARCA ENVIA 1 SOBRE CERRADO CON TRATAMINETO DE RESERVA DE CONFORMIDAD CON EL AUTO DE 17 DE ABRIL DE 2015</t>
+          <t>ADMÍTESE EL RECURSO DE APELACIÓN INTERPUESTO POR LA PARTE DEMANDATE COSNTRA LA SENTENCIA DEL 10 DE AGOSTO DE 2017, POR EL TRIBUNAL ADMINISTRATIVO DE CUNDINAMARCA.</t>
         </is>
       </c>
       <c r="L98" s="18" t="n"/>
@@ -6093,7 +6093,7 @@
       <c r="AR98" s="19" t="n"/>
       <c r="AS98" s="9" t="inlineStr">
         <is>
-          <t>04 Oct 2017</t>
+          <t>26 Oct 2017</t>
         </is>
       </c>
       <c r="AT98" s="18" t="n"/>
@@ -6103,7 +6103,7 @@
     <row customHeight="1" ht="33" r="99" s="8">
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t>03 Oct 2017</t>
+          <t>04 Oct 2017</t>
         </is>
       </c>
       <c r="D99" s="18" t="n"/>
@@ -6111,7 +6111,7 @@
       <c r="F99" s="19" t="n"/>
       <c r="G99" s="9" t="inlineStr">
         <is>
-          <t>AL DESPACHO POR REPARTO</t>
+          <t>MEMORIALES A DESPACHO</t>
         </is>
       </c>
       <c r="H99" s="18" t="n"/>
@@ -6119,7 +6119,7 @@
       <c r="J99" s="19" t="n"/>
       <c r="K99" s="9" t="inlineStr">
         <is>
-          <t>ADMISIBILIDAD DEL RECURSO</t>
+          <t>EL TRIBUNAL ADMINISTRATIVO DE CUNDINAMARCA ENVIA 1 SOBRE CERRADO CON TRATAMINETO DE RESERVA DE CONFORMIDAD CON EL AUTO DE 17 DE ABRIL DE 2015</t>
         </is>
       </c>
       <c r="L99" s="18" t="n"/>
@@ -6157,7 +6157,7 @@
       <c r="AR99" s="19" t="n"/>
       <c r="AS99" s="9" t="inlineStr">
         <is>
-          <t>03 Oct 2017</t>
+          <t>04 Oct 2017</t>
         </is>
       </c>
       <c r="AT99" s="18" t="n"/>
@@ -6167,7 +6167,7 @@
     <row customHeight="1" ht="33" r="100" s="8">
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>29 Sep 2017</t>
+          <t>03 Oct 2017</t>
         </is>
       </c>
       <c r="D100" s="18" t="n"/>
@@ -6175,7 +6175,7 @@
       <c r="F100" s="19" t="n"/>
       <c r="G100" s="9" t="inlineStr">
         <is>
-          <t>CAMBIO DE PONENTE</t>
+          <t>RECIBE MEMORIALES</t>
         </is>
       </c>
       <c r="H100" s="18" t="n"/>
@@ -6183,7 +6183,7 @@
       <c r="J100" s="19" t="n"/>
       <c r="K100" s="9" t="inlineStr">
         <is>
-          <t>A LAS 07:55:21 ANT. PONENTE:PENDIENTE REPARTO NVO. PONENTE:CARLOS ALBERTO ZAMBRANO BARRERA POR REPARTO DE LA SECRETARIA GENERAL FUE ASIGNADO AL DR. CARLOS ALBERTO ZAMBRANO BARRERA.</t>
+          <t>EL TRIBUNAL ADMINISTRATIVO DE CUNDINAMARCA ENVIA 1 SOBRE CERRADO CON TRATAMINETO DE RESERVA DE CONFORMIDAD CON EL AUTO DE 17 DE ABRIL DE 2015</t>
         </is>
       </c>
       <c r="L100" s="18" t="n"/>
@@ -6211,25 +6211,17 @@
       <c r="AH100" s="18" t="n"/>
       <c r="AI100" s="18" t="n"/>
       <c r="AJ100" s="19" t="n"/>
-      <c r="AK100" s="9" t="inlineStr">
-        <is>
-          <t>29 Sep 2017</t>
-        </is>
-      </c>
+      <c r="AK100" s="9" t="inlineStr"/>
       <c r="AL100" s="18" t="n"/>
       <c r="AM100" s="18" t="n"/>
       <c r="AN100" s="19" t="n"/>
-      <c r="AO100" s="9" t="inlineStr">
-        <is>
-          <t>29 Sep 2017</t>
-        </is>
-      </c>
+      <c r="AO100" s="9" t="inlineStr"/>
       <c r="AP100" s="18" t="n"/>
       <c r="AQ100" s="18" t="n"/>
       <c r="AR100" s="19" t="n"/>
       <c r="AS100" s="9" t="inlineStr">
         <is>
-          <t>29 Sep 2017</t>
+          <t>04 Oct 2017</t>
         </is>
       </c>
       <c r="AT100" s="18" t="n"/>
@@ -6239,7 +6231,7 @@
     <row customHeight="1" ht="33" r="101" s="8">
       <c r="C101" s="9" t="inlineStr">
         <is>
-          <t>29 Sep 2017</t>
+          <t>03 Oct 2017</t>
         </is>
       </c>
       <c r="D101" s="18" t="n"/>
@@ -6247,7 +6239,7 @@
       <c r="F101" s="19" t="n"/>
       <c r="G101" s="9" t="inlineStr">
         <is>
-          <t>REPARTO DEL PROCESO</t>
+          <t>AL DESPACHO POR REPARTO</t>
         </is>
       </c>
       <c r="H101" s="18" t="n"/>
@@ -6255,7 +6247,7 @@
       <c r="J101" s="19" t="n"/>
       <c r="K101" s="9" t="inlineStr">
         <is>
-          <t>A LAS 07:54:22 REPARTIDO A:PENDIENTE REPARTO</t>
+          <t>ADMISIBILIDAD DEL RECURSO</t>
         </is>
       </c>
       <c r="L101" s="18" t="n"/>
@@ -6283,25 +6275,17 @@
       <c r="AH101" s="18" t="n"/>
       <c r="AI101" s="18" t="n"/>
       <c r="AJ101" s="19" t="n"/>
-      <c r="AK101" s="9" t="inlineStr">
-        <is>
-          <t>29 Sep 2017</t>
-        </is>
-      </c>
+      <c r="AK101" s="9" t="inlineStr"/>
       <c r="AL101" s="18" t="n"/>
       <c r="AM101" s="18" t="n"/>
       <c r="AN101" s="19" t="n"/>
-      <c r="AO101" s="9" t="inlineStr">
-        <is>
-          <t>29 Sep 2017</t>
-        </is>
-      </c>
+      <c r="AO101" s="9" t="inlineStr"/>
       <c r="AP101" s="18" t="n"/>
       <c r="AQ101" s="18" t="n"/>
       <c r="AR101" s="19" t="n"/>
       <c r="AS101" s="9" t="inlineStr">
         <is>
-          <t>29 Sep 2017</t>
+          <t>03 Oct 2017</t>
         </is>
       </c>
       <c r="AT101" s="18" t="n"/>
@@ -6319,7 +6303,7 @@
       <c r="F102" s="19" t="n"/>
       <c r="G102" s="9" t="inlineStr">
         <is>
-          <t>RADICACIÓN DE PROCESO</t>
+          <t>CAMBIO DE PONENTE</t>
         </is>
       </c>
       <c r="H102" s="18" t="n"/>
@@ -6327,7 +6311,7 @@
       <c r="J102" s="19" t="n"/>
       <c r="K102" s="9" t="inlineStr">
         <is>
-          <t>ACTUACIÓN DE RADICACIÓN DE PROCESO REALIZADA EL 29/09/2017 A LAS 07:54:02</t>
+          <t>A LAS 07:55:21 ANT. PONENTE:PENDIENTE REPARTO NVO. PONENTE:CARLOS ALBERTO ZAMBRANO BARRERA POR REPARTO DE LA SECRETARIA GENERAL FUE ASIGNADO AL DR. CARLOS ALBERTO ZAMBRANO BARRERA.</t>
         </is>
       </c>
       <c r="L102" s="18" t="n"/>
@@ -6380,8 +6364,152 @@
       <c r="AU102" s="18" t="n"/>
       <c r="AV102" s="19" t="n"/>
     </row>
+    <row customHeight="1" ht="33" r="103" s="8">
+      <c r="C103" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="D103" s="18" t="n"/>
+      <c r="E103" s="18" t="n"/>
+      <c r="F103" s="19" t="n"/>
+      <c r="G103" s="9" t="inlineStr">
+        <is>
+          <t>REPARTO DEL PROCESO</t>
+        </is>
+      </c>
+      <c r="H103" s="18" t="n"/>
+      <c r="I103" s="18" t="n"/>
+      <c r="J103" s="19" t="n"/>
+      <c r="K103" s="9" t="inlineStr">
+        <is>
+          <t>A LAS 07:54:22 REPARTIDO A:PENDIENTE REPARTO</t>
+        </is>
+      </c>
+      <c r="L103" s="18" t="n"/>
+      <c r="M103" s="18" t="n"/>
+      <c r="N103" s="18" t="n"/>
+      <c r="O103" s="18" t="n"/>
+      <c r="P103" s="18" t="n"/>
+      <c r="Q103" s="18" t="n"/>
+      <c r="R103" s="18" t="n"/>
+      <c r="S103" s="18" t="n"/>
+      <c r="T103" s="18" t="n"/>
+      <c r="U103" s="18" t="n"/>
+      <c r="V103" s="18" t="n"/>
+      <c r="W103" s="18" t="n"/>
+      <c r="X103" s="18" t="n"/>
+      <c r="Y103" s="18" t="n"/>
+      <c r="Z103" s="18" t="n"/>
+      <c r="AA103" s="18" t="n"/>
+      <c r="AB103" s="18" t="n"/>
+      <c r="AC103" s="18" t="n"/>
+      <c r="AD103" s="18" t="n"/>
+      <c r="AE103" s="18" t="n"/>
+      <c r="AF103" s="18" t="n"/>
+      <c r="AG103" s="18" t="n"/>
+      <c r="AH103" s="18" t="n"/>
+      <c r="AI103" s="18" t="n"/>
+      <c r="AJ103" s="19" t="n"/>
+      <c r="AK103" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="AL103" s="18" t="n"/>
+      <c r="AM103" s="18" t="n"/>
+      <c r="AN103" s="19" t="n"/>
+      <c r="AO103" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="AP103" s="18" t="n"/>
+      <c r="AQ103" s="18" t="n"/>
+      <c r="AR103" s="19" t="n"/>
+      <c r="AS103" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="AT103" s="18" t="n"/>
+      <c r="AU103" s="18" t="n"/>
+      <c r="AV103" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="33" r="104" s="8">
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="D104" s="18" t="n"/>
+      <c r="E104" s="18" t="n"/>
+      <c r="F104" s="19" t="n"/>
+      <c r="G104" s="9" t="inlineStr">
+        <is>
+          <t>RADICACIÓN DE PROCESO</t>
+        </is>
+      </c>
+      <c r="H104" s="18" t="n"/>
+      <c r="I104" s="18" t="n"/>
+      <c r="J104" s="19" t="n"/>
+      <c r="K104" s="9" t="inlineStr">
+        <is>
+          <t>ACTUACIÓN DE RADICACIÓN DE PROCESO REALIZADA EL 29/09/2017 A LAS 07:54:02</t>
+        </is>
+      </c>
+      <c r="L104" s="18" t="n"/>
+      <c r="M104" s="18" t="n"/>
+      <c r="N104" s="18" t="n"/>
+      <c r="O104" s="18" t="n"/>
+      <c r="P104" s="18" t="n"/>
+      <c r="Q104" s="18" t="n"/>
+      <c r="R104" s="18" t="n"/>
+      <c r="S104" s="18" t="n"/>
+      <c r="T104" s="18" t="n"/>
+      <c r="U104" s="18" t="n"/>
+      <c r="V104" s="18" t="n"/>
+      <c r="W104" s="18" t="n"/>
+      <c r="X104" s="18" t="n"/>
+      <c r="Y104" s="18" t="n"/>
+      <c r="Z104" s="18" t="n"/>
+      <c r="AA104" s="18" t="n"/>
+      <c r="AB104" s="18" t="n"/>
+      <c r="AC104" s="18" t="n"/>
+      <c r="AD104" s="18" t="n"/>
+      <c r="AE104" s="18" t="n"/>
+      <c r="AF104" s="18" t="n"/>
+      <c r="AG104" s="18" t="n"/>
+      <c r="AH104" s="18" t="n"/>
+      <c r="AI104" s="18" t="n"/>
+      <c r="AJ104" s="19" t="n"/>
+      <c r="AK104" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="AL104" s="18" t="n"/>
+      <c r="AM104" s="18" t="n"/>
+      <c r="AN104" s="19" t="n"/>
+      <c r="AO104" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="AP104" s="18" t="n"/>
+      <c r="AQ104" s="18" t="n"/>
+      <c r="AR104" s="19" t="n"/>
+      <c r="AS104" s="9" t="inlineStr">
+        <is>
+          <t>29 Sep 2017</t>
+        </is>
+      </c>
+      <c r="AT104" s="18" t="n"/>
+      <c r="AU104" s="18" t="n"/>
+      <c r="AV104" s="19" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="458">
+  <mergeCells count="470">
     <mergeCell ref="C18:AV18"/>
     <mergeCell ref="C25:Y25"/>
     <mergeCell ref="Z25:AV25"/>
@@ -6840,6 +6968,18 @@
     <mergeCell ref="AK102:AN102"/>
     <mergeCell ref="AO102:AR102"/>
     <mergeCell ref="AS102:AV102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="K103:AJ103"/>
+    <mergeCell ref="AK103:AN103"/>
+    <mergeCell ref="AO103:AR103"/>
+    <mergeCell ref="AS103:AV103"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="K104:AJ104"/>
+    <mergeCell ref="AK104:AN104"/>
+    <mergeCell ref="AO104:AR104"/>
+    <mergeCell ref="AS104:AV104"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
